--- a/data/freight/Baltic air freight index.xlsx
+++ b/data/freight/Baltic air freight index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F842E9E-3740-4E39-ABC2-D5F87F4CB385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD90F8F-F0E9-48ED-99AA-921BDD9C7A76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16320" yWindow="780" windowWidth="19680" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="24">
   <si>
     <t>Shanghai Pudong Outbound</t>
   </si>
@@ -248,6 +248,12 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,12 +262,6 @@
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -545,18 +545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K422"/>
+  <dimension ref="A1:K423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L401" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L404" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M422" sqref="M422"/>
+      <selection pane="bottomRight" activeCell="H433" sqref="H433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="9" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="8" customWidth="1"/>
@@ -568,16 +568,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -603,10 +603,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
@@ -630,7 +630,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <f>B3-1</f>
         <v>43100</v>
       </c>
@@ -666,7 +666,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="11">
         <f t="shared" ref="A4:A67" si="0">B4-1</f>
         <v>43107</v>
       </c>
@@ -702,7 +702,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>43114</v>
       </c>
@@ -738,7 +738,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>43121</v>
       </c>
@@ -774,7 +774,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>43128</v>
       </c>
@@ -810,7 +810,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>43135</v>
       </c>
@@ -846,7 +846,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>43142</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>43149</v>
       </c>
@@ -918,7 +918,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>43156</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>43163</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>43170</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>43177</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>43184</v>
       </c>
@@ -1098,7 +1098,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>43191</v>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>43198</v>
       </c>
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>43205</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>43212</v>
       </c>
@@ -1242,7 +1242,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>43219</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+      <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>43226</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>43233</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+      <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>43240</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
+      <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>43247</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+      <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>43254</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>43261</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>43268</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+      <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>43275</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
+      <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>43282</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
+      <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>43289</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="14">
+      <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>43296</v>
       </c>
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
+      <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>43303</v>
       </c>
@@ -1710,7 +1710,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
+      <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>43310</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>43317</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
+      <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>43324</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
+      <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>43331</v>
       </c>
@@ -1854,7 +1854,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
+      <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>43338</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="14">
+      <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>43345</v>
       </c>
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
+      <c r="A39" s="11">
         <f t="shared" si="0"/>
         <v>43352</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="14">
+      <c r="A40" s="11">
         <f t="shared" si="0"/>
         <v>43359</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
+      <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>43366</v>
       </c>
@@ -2034,7 +2034,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="14">
+      <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>43373</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
+      <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>43380</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
+      <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>43387</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="14">
+      <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>43394</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="14">
+      <c r="A46" s="11">
         <f t="shared" si="0"/>
         <v>43401</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="14">
+      <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>43408</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="14">
+      <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>43415</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="14">
+      <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>43422</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
+      <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>43429</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
+      <c r="A51" s="11">
         <f t="shared" si="0"/>
         <v>43436</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="14">
+      <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>43443</v>
       </c>
@@ -2430,7 +2430,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="14">
+      <c r="A53" s="11">
         <f t="shared" si="0"/>
         <v>43450</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
+      <c r="A54" s="11">
         <f t="shared" si="0"/>
         <v>43457</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
+      <c r="A55" s="11">
         <f t="shared" si="0"/>
         <v>43464</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="14">
+      <c r="A56" s="11">
         <f t="shared" si="0"/>
         <v>43471</v>
       </c>
@@ -2574,7 +2574,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
+      <c r="A57" s="11">
         <f t="shared" si="0"/>
         <v>43478</v>
       </c>
@@ -2610,7 +2610,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
+      <c r="A58" s="11">
         <f t="shared" si="0"/>
         <v>43485</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="14">
+      <c r="A59" s="11">
         <f t="shared" si="0"/>
         <v>43492</v>
       </c>
@@ -2682,7 +2682,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="14">
+      <c r="A60" s="11">
         <f t="shared" si="0"/>
         <v>43499</v>
       </c>
@@ -2718,7 +2718,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="14">
+      <c r="A61" s="11">
         <f t="shared" si="0"/>
         <v>43506</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="14">
+      <c r="A62" s="11">
         <f t="shared" si="0"/>
         <v>43513</v>
       </c>
@@ -2790,7 +2790,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="14">
+      <c r="A63" s="11">
         <f t="shared" si="0"/>
         <v>43520</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="14">
+      <c r="A64" s="11">
         <f t="shared" si="0"/>
         <v>43527</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="14">
+      <c r="A65" s="11">
         <f t="shared" si="0"/>
         <v>43534</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="14">
+      <c r="A66" s="11">
         <f t="shared" si="0"/>
         <v>43541</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="14">
+      <c r="A67" s="11">
         <f t="shared" si="0"/>
         <v>43548</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="14">
+      <c r="A68" s="11">
         <f t="shared" ref="A68:A131" si="1">B68-1</f>
         <v>43555</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="14">
+      <c r="A69" s="11">
         <f t="shared" si="1"/>
         <v>43562</v>
       </c>
@@ -3042,7 +3042,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="14">
+      <c r="A70" s="11">
         <f t="shared" si="1"/>
         <v>43569</v>
       </c>
@@ -3078,7 +3078,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="14">
+      <c r="A71" s="11">
         <f t="shared" si="1"/>
         <v>43576</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="14">
+      <c r="A72" s="11">
         <f t="shared" si="1"/>
         <v>43583</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="14">
+      <c r="A73" s="11">
         <f t="shared" si="1"/>
         <v>43590</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="14">
+      <c r="A74" s="11">
         <f t="shared" si="1"/>
         <v>43597</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="14">
+      <c r="A75" s="11">
         <f t="shared" si="1"/>
         <v>43604</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="14">
+      <c r="A76" s="11">
         <f t="shared" si="1"/>
         <v>43611</v>
       </c>
@@ -3294,7 +3294,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="14">
+      <c r="A77" s="11">
         <f t="shared" si="1"/>
         <v>43618</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="14">
+      <c r="A78" s="11">
         <f t="shared" si="1"/>
         <v>43625</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="14">
+      <c r="A79" s="11">
         <f t="shared" si="1"/>
         <v>43632</v>
       </c>
@@ -3402,7 +3402,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="14">
+      <c r="A80" s="11">
         <f t="shared" si="1"/>
         <v>43639</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="14">
+      <c r="A81" s="11">
         <f t="shared" si="1"/>
         <v>43646</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="14">
+      <c r="A82" s="11">
         <f t="shared" si="1"/>
         <v>43653</v>
       </c>
@@ -3510,7 +3510,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="14">
+      <c r="A83" s="11">
         <f t="shared" si="1"/>
         <v>43660</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="14">
+      <c r="A84" s="11">
         <f t="shared" si="1"/>
         <v>43667</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="14">
+      <c r="A85" s="11">
         <f t="shared" si="1"/>
         <v>43674</v>
       </c>
@@ -3618,7 +3618,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="14">
+      <c r="A86" s="11">
         <f t="shared" si="1"/>
         <v>43681</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="14">
+      <c r="A87" s="11">
         <f t="shared" si="1"/>
         <v>43688</v>
       </c>
@@ -3690,7 +3690,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="14">
+      <c r="A88" s="11">
         <f t="shared" si="1"/>
         <v>43695</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="14">
+      <c r="A89" s="11">
         <f t="shared" si="1"/>
         <v>43702</v>
       </c>
@@ -3762,7 +3762,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="14">
+      <c r="A90" s="11">
         <f t="shared" si="1"/>
         <v>43709</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="14">
+      <c r="A91" s="11">
         <f t="shared" si="1"/>
         <v>43716</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="14">
+      <c r="A92" s="11">
         <f t="shared" si="1"/>
         <v>43723</v>
       </c>
@@ -3870,7 +3870,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="14">
+      <c r="A93" s="11">
         <f t="shared" si="1"/>
         <v>43730</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="14">
+      <c r="A94" s="11">
         <f t="shared" si="1"/>
         <v>43737</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="14">
+      <c r="A95" s="11">
         <f t="shared" si="1"/>
         <v>43744</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="14">
+      <c r="A96" s="11">
         <f t="shared" si="1"/>
         <v>43751</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="14">
+      <c r="A97" s="11">
         <f t="shared" si="1"/>
         <v>43758</v>
       </c>
@@ -4050,7 +4050,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="14">
+      <c r="A98" s="11">
         <f t="shared" si="1"/>
         <v>43765</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="14">
+      <c r="A99" s="11">
         <f t="shared" si="1"/>
         <v>43772</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="14">
+      <c r="A100" s="11">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="14">
+      <c r="A101" s="11">
         <f t="shared" si="1"/>
         <v>43786</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="14">
+      <c r="A102" s="11">
         <f t="shared" si="1"/>
         <v>43793</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="14">
+      <c r="A103" s="11">
         <f t="shared" si="1"/>
         <v>43800</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="14">
+      <c r="A104" s="11">
         <f t="shared" si="1"/>
         <v>43807</v>
       </c>
@@ -4302,7 +4302,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="14">
+      <c r="A105" s="11">
         <f t="shared" si="1"/>
         <v>43814</v>
       </c>
@@ -4338,7 +4338,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="14">
+      <c r="A106" s="11">
         <f t="shared" si="1"/>
         <v>43821</v>
       </c>
@@ -4374,7 +4374,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="14">
+      <c r="A107" s="11">
         <f t="shared" si="1"/>
         <v>43828</v>
       </c>
@@ -4410,7 +4410,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="14">
+      <c r="A108" s="11">
         <f t="shared" si="1"/>
         <v>43835</v>
       </c>
@@ -4446,7 +4446,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="14">
+      <c r="A109" s="11">
         <f t="shared" si="1"/>
         <v>43842</v>
       </c>
@@ -4482,7 +4482,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="14">
+      <c r="A110" s="11">
         <f t="shared" si="1"/>
         <v>43849</v>
       </c>
@@ -4518,7 +4518,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="14">
+      <c r="A111" s="11">
         <f t="shared" si="1"/>
         <v>43856</v>
       </c>
@@ -4554,7 +4554,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="14">
+      <c r="A112" s="11">
         <f t="shared" si="1"/>
         <v>43863</v>
       </c>
@@ -4590,7 +4590,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="14">
+      <c r="A113" s="11">
         <f t="shared" si="1"/>
         <v>43870</v>
       </c>
@@ -4626,7 +4626,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="14">
+      <c r="A114" s="11">
         <f t="shared" si="1"/>
         <v>43877</v>
       </c>
@@ -4662,7 +4662,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="14">
+      <c r="A115" s="11">
         <f t="shared" si="1"/>
         <v>43884</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="14">
+      <c r="A116" s="11">
         <f t="shared" si="1"/>
         <v>43891</v>
       </c>
@@ -4734,7 +4734,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="14">
+      <c r="A117" s="11">
         <f t="shared" si="1"/>
         <v>43898</v>
       </c>
@@ -4770,7 +4770,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="14">
+      <c r="A118" s="11">
         <f t="shared" si="1"/>
         <v>43905</v>
       </c>
@@ -4806,7 +4806,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="14">
+      <c r="A119" s="11">
         <f t="shared" si="1"/>
         <v>43912</v>
       </c>
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="14">
+      <c r="A120" s="11">
         <f t="shared" si="1"/>
         <v>43919</v>
       </c>
@@ -4878,7 +4878,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="14">
+      <c r="A121" s="11">
         <f t="shared" si="1"/>
         <v>43926</v>
       </c>
@@ -4914,7 +4914,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="14">
+      <c r="A122" s="11">
         <f t="shared" si="1"/>
         <v>43933</v>
       </c>
@@ -4950,7 +4950,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="14">
+      <c r="A123" s="11">
         <f t="shared" si="1"/>
         <v>43940</v>
       </c>
@@ -4986,7 +4986,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="14">
+      <c r="A124" s="11">
         <f t="shared" si="1"/>
         <v>43947</v>
       </c>
@@ -5022,7 +5022,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="14">
+      <c r="A125" s="11">
         <f t="shared" si="1"/>
         <v>43954</v>
       </c>
@@ -5058,7 +5058,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="14">
+      <c r="A126" s="11">
         <f t="shared" si="1"/>
         <v>43961</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="14">
+      <c r="A127" s="11">
         <f t="shared" si="1"/>
         <v>43968</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="14">
+      <c r="A128" s="11">
         <f t="shared" si="1"/>
         <v>43975</v>
       </c>
@@ -5166,7 +5166,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="14">
+      <c r="A129" s="11">
         <f t="shared" si="1"/>
         <v>43982</v>
       </c>
@@ -5202,7 +5202,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="14">
+      <c r="A130" s="11">
         <f t="shared" si="1"/>
         <v>43989</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="14">
+      <c r="A131" s="11">
         <f t="shared" si="1"/>
         <v>43996</v>
       </c>
@@ -5274,7 +5274,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="14">
+      <c r="A132" s="11">
         <f t="shared" ref="A132:A195" si="2">B132-1</f>
         <v>44003</v>
       </c>
@@ -5310,7 +5310,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="14">
+      <c r="A133" s="11">
         <f t="shared" si="2"/>
         <v>44010</v>
       </c>
@@ -5346,7 +5346,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="14">
+      <c r="A134" s="11">
         <f t="shared" si="2"/>
         <v>44017</v>
       </c>
@@ -5382,7 +5382,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="14">
+      <c r="A135" s="11">
         <f t="shared" si="2"/>
         <v>44024</v>
       </c>
@@ -5418,7 +5418,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="14">
+      <c r="A136" s="11">
         <f t="shared" si="2"/>
         <v>44031</v>
       </c>
@@ -5454,7 +5454,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="14">
+      <c r="A137" s="11">
         <f t="shared" si="2"/>
         <v>44038</v>
       </c>
@@ -5490,7 +5490,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="14">
+      <c r="A138" s="11">
         <f t="shared" si="2"/>
         <v>44045</v>
       </c>
@@ -5526,7 +5526,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="14">
+      <c r="A139" s="11">
         <f t="shared" si="2"/>
         <v>44052</v>
       </c>
@@ -5562,7 +5562,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="14">
+      <c r="A140" s="11">
         <f t="shared" si="2"/>
         <v>44059</v>
       </c>
@@ -5598,7 +5598,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="14">
+      <c r="A141" s="11">
         <f t="shared" si="2"/>
         <v>44066</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="14">
+      <c r="A142" s="11">
         <f t="shared" si="2"/>
         <v>44073</v>
       </c>
@@ -5670,7 +5670,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="14">
+      <c r="A143" s="11">
         <f t="shared" si="2"/>
         <v>44080</v>
       </c>
@@ -5706,7 +5706,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="14">
+      <c r="A144" s="11">
         <f t="shared" si="2"/>
         <v>44087</v>
       </c>
@@ -5742,7 +5742,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="14">
+      <c r="A145" s="11">
         <f t="shared" si="2"/>
         <v>44094</v>
       </c>
@@ -5778,7 +5778,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="14">
+      <c r="A146" s="11">
         <f t="shared" si="2"/>
         <v>44101</v>
       </c>
@@ -5814,7 +5814,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="14">
+      <c r="A147" s="11">
         <f t="shared" si="2"/>
         <v>44108</v>
       </c>
@@ -5850,7 +5850,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="14">
+      <c r="A148" s="11">
         <f t="shared" si="2"/>
         <v>44115</v>
       </c>
@@ -5886,7 +5886,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="14">
+      <c r="A149" s="11">
         <f t="shared" si="2"/>
         <v>44122</v>
       </c>
@@ -5922,7 +5922,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="14">
+      <c r="A150" s="11">
         <f t="shared" si="2"/>
         <v>44129</v>
       </c>
@@ -5958,7 +5958,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="14">
+      <c r="A151" s="11">
         <f t="shared" si="2"/>
         <v>44136</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="14">
+      <c r="A152" s="11">
         <f t="shared" si="2"/>
         <v>44143</v>
       </c>
@@ -6030,7 +6030,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="14">
+      <c r="A153" s="11">
         <f t="shared" si="2"/>
         <v>44150</v>
       </c>
@@ -6066,7 +6066,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="14">
+      <c r="A154" s="11">
         <f t="shared" si="2"/>
         <v>44157</v>
       </c>
@@ -6102,7 +6102,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="14">
+      <c r="A155" s="11">
         <f t="shared" si="2"/>
         <v>44164</v>
       </c>
@@ -6138,7 +6138,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="14">
+      <c r="A156" s="11">
         <f t="shared" si="2"/>
         <v>44171</v>
       </c>
@@ -6174,7 +6174,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="14">
+      <c r="A157" s="11">
         <f t="shared" si="2"/>
         <v>44178</v>
       </c>
@@ -6210,7 +6210,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="14">
+      <c r="A158" s="11">
         <f t="shared" si="2"/>
         <v>44185</v>
       </c>
@@ -6246,7 +6246,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="14">
+      <c r="A159" s="11">
         <f t="shared" si="2"/>
         <v>44192</v>
       </c>
@@ -6282,7 +6282,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="14">
+      <c r="A160" s="11">
         <f t="shared" si="2"/>
         <v>44199</v>
       </c>
@@ -6318,7 +6318,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="14">
+      <c r="A161" s="11">
         <f t="shared" si="2"/>
         <v>44206</v>
       </c>
@@ -6354,7 +6354,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="14">
+      <c r="A162" s="11">
         <f t="shared" si="2"/>
         <v>44213</v>
       </c>
@@ -6390,7 +6390,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="14">
+      <c r="A163" s="11">
         <f t="shared" si="2"/>
         <v>44220</v>
       </c>
@@ -6426,7 +6426,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="14">
+      <c r="A164" s="11">
         <f t="shared" si="2"/>
         <v>44227</v>
       </c>
@@ -6462,7 +6462,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="14">
+      <c r="A165" s="11">
         <f t="shared" si="2"/>
         <v>44234</v>
       </c>
@@ -6498,7 +6498,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="14">
+      <c r="A166" s="11">
         <f t="shared" si="2"/>
         <v>44241</v>
       </c>
@@ -6534,7 +6534,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="14">
+      <c r="A167" s="11">
         <f t="shared" si="2"/>
         <v>44248</v>
       </c>
@@ -6570,7 +6570,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="14">
+      <c r="A168" s="11">
         <f t="shared" si="2"/>
         <v>44255</v>
       </c>
@@ -6606,7 +6606,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="14">
+      <c r="A169" s="11">
         <f t="shared" si="2"/>
         <v>44262</v>
       </c>
@@ -6642,7 +6642,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="14">
+      <c r="A170" s="11">
         <f t="shared" si="2"/>
         <v>44269</v>
       </c>
@@ -6678,7 +6678,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="14">
+      <c r="A171" s="11">
         <f t="shared" si="2"/>
         <v>44276</v>
       </c>
@@ -6714,7 +6714,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="14">
+      <c r="A172" s="11">
         <f t="shared" si="2"/>
         <v>44283</v>
       </c>
@@ -6750,7 +6750,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="14">
+      <c r="A173" s="11">
         <f t="shared" si="2"/>
         <v>44290</v>
       </c>
@@ -6786,7 +6786,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="14">
+      <c r="A174" s="11">
         <f t="shared" si="2"/>
         <v>44297</v>
       </c>
@@ -6822,7 +6822,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="14">
+      <c r="A175" s="11">
         <f t="shared" si="2"/>
         <v>44304</v>
       </c>
@@ -6858,7 +6858,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="14">
+      <c r="A176" s="11">
         <f t="shared" si="2"/>
         <v>44311</v>
       </c>
@@ -6894,7 +6894,7 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="14">
+      <c r="A177" s="11">
         <f t="shared" si="2"/>
         <v>44318</v>
       </c>
@@ -6930,7 +6930,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="14">
+      <c r="A178" s="11">
         <f t="shared" si="2"/>
         <v>44325</v>
       </c>
@@ -6966,7 +6966,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="14">
+      <c r="A179" s="11">
         <f t="shared" si="2"/>
         <v>44332</v>
       </c>
@@ -7002,7 +7002,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="14">
+      <c r="A180" s="11">
         <f t="shared" si="2"/>
         <v>44339</v>
       </c>
@@ -7038,7 +7038,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="14">
+      <c r="A181" s="11">
         <f t="shared" si="2"/>
         <v>44346</v>
       </c>
@@ -7074,7 +7074,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="14">
+      <c r="A182" s="11">
         <f t="shared" si="2"/>
         <v>44353</v>
       </c>
@@ -7110,7 +7110,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="14">
+      <c r="A183" s="11">
         <f t="shared" si="2"/>
         <v>44360</v>
       </c>
@@ -7146,7 +7146,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="14">
+      <c r="A184" s="11">
         <f t="shared" si="2"/>
         <v>44367</v>
       </c>
@@ -7182,7 +7182,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="14">
+      <c r="A185" s="11">
         <f t="shared" si="2"/>
         <v>44374</v>
       </c>
@@ -7218,7 +7218,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="14">
+      <c r="A186" s="11">
         <f t="shared" si="2"/>
         <v>44381</v>
       </c>
@@ -7254,7 +7254,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="14">
+      <c r="A187" s="11">
         <f t="shared" si="2"/>
         <v>44388</v>
       </c>
@@ -7290,7 +7290,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="14">
+      <c r="A188" s="11">
         <f t="shared" si="2"/>
         <v>44395</v>
       </c>
@@ -7326,7 +7326,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="14">
+      <c r="A189" s="11">
         <f t="shared" si="2"/>
         <v>44402</v>
       </c>
@@ -7362,7 +7362,7 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="14">
+      <c r="A190" s="11">
         <f t="shared" si="2"/>
         <v>44409</v>
       </c>
@@ -7398,7 +7398,7 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="14">
+      <c r="A191" s="11">
         <f t="shared" si="2"/>
         <v>44416</v>
       </c>
@@ -7434,7 +7434,7 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="14">
+      <c r="A192" s="11">
         <f t="shared" si="2"/>
         <v>44423</v>
       </c>
@@ -7470,7 +7470,7 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="14">
+      <c r="A193" s="11">
         <f t="shared" si="2"/>
         <v>44430</v>
       </c>
@@ -7506,7 +7506,7 @@
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="14">
+      <c r="A194" s="11">
         <f t="shared" si="2"/>
         <v>44437</v>
       </c>
@@ -7542,7 +7542,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="14">
+      <c r="A195" s="11">
         <f t="shared" si="2"/>
         <v>44444</v>
       </c>
@@ -7578,7 +7578,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="14">
+      <c r="A196" s="11">
         <f t="shared" ref="A196:A259" si="3">B196-1</f>
         <v>44451</v>
       </c>
@@ -7614,7 +7614,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="14">
+      <c r="A197" s="11">
         <f t="shared" si="3"/>
         <v>44458</v>
       </c>
@@ -7650,7 +7650,7 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="14">
+      <c r="A198" s="11">
         <f t="shared" si="3"/>
         <v>44465</v>
       </c>
@@ -7686,7 +7686,7 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="14">
+      <c r="A199" s="11">
         <f t="shared" si="3"/>
         <v>44472</v>
       </c>
@@ -7722,7 +7722,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="14">
+      <c r="A200" s="11">
         <f t="shared" si="3"/>
         <v>44479</v>
       </c>
@@ -7758,7 +7758,7 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="14">
+      <c r="A201" s="11">
         <f t="shared" si="3"/>
         <v>44486</v>
       </c>
@@ -7794,7 +7794,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="14">
+      <c r="A202" s="11">
         <f t="shared" si="3"/>
         <v>44493</v>
       </c>
@@ -7830,7 +7830,7 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="14">
+      <c r="A203" s="11">
         <f t="shared" si="3"/>
         <v>44500</v>
       </c>
@@ -7866,7 +7866,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="14">
+      <c r="A204" s="11">
         <f t="shared" si="3"/>
         <v>44507</v>
       </c>
@@ -7902,7 +7902,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="14">
+      <c r="A205" s="11">
         <f t="shared" si="3"/>
         <v>44514</v>
       </c>
@@ -7938,7 +7938,7 @@
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="14">
+      <c r="A206" s="11">
         <f t="shared" si="3"/>
         <v>44521</v>
       </c>
@@ -7974,7 +7974,7 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="14">
+      <c r="A207" s="11">
         <f t="shared" si="3"/>
         <v>44528</v>
       </c>
@@ -8010,7 +8010,7 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="14">
+      <c r="A208" s="11">
         <f t="shared" si="3"/>
         <v>44535</v>
       </c>
@@ -8046,7 +8046,7 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="14">
+      <c r="A209" s="11">
         <f t="shared" si="3"/>
         <v>44542</v>
       </c>
@@ -8082,7 +8082,7 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="14">
+      <c r="A210" s="11">
         <f t="shared" si="3"/>
         <v>44549</v>
       </c>
@@ -8118,7 +8118,7 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="14">
+      <c r="A211" s="11">
         <f t="shared" si="3"/>
         <v>44556</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="14">
+      <c r="A212" s="11">
         <f t="shared" si="3"/>
         <v>44563</v>
       </c>
@@ -8190,7 +8190,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="14">
+      <c r="A213" s="11">
         <f t="shared" si="3"/>
         <v>44570</v>
       </c>
@@ -8226,7 +8226,7 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="14">
+      <c r="A214" s="11">
         <f t="shared" si="3"/>
         <v>44577</v>
       </c>
@@ -8262,7 +8262,7 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="14">
+      <c r="A215" s="11">
         <f t="shared" si="3"/>
         <v>44584</v>
       </c>
@@ -8298,7 +8298,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="14">
+      <c r="A216" s="11">
         <f t="shared" si="3"/>
         <v>44591</v>
       </c>
@@ -8334,7 +8334,7 @@
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="14">
+      <c r="A217" s="11">
         <f t="shared" si="3"/>
         <v>44598</v>
       </c>
@@ -8370,7 +8370,7 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="14">
+      <c r="A218" s="11">
         <f t="shared" si="3"/>
         <v>44605</v>
       </c>
@@ -8406,7 +8406,7 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="14">
+      <c r="A219" s="11">
         <f t="shared" si="3"/>
         <v>44612</v>
       </c>
@@ -8442,7 +8442,7 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="14">
+      <c r="A220" s="11">
         <f t="shared" si="3"/>
         <v>44619</v>
       </c>
@@ -8478,7 +8478,7 @@
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="14">
+      <c r="A221" s="11">
         <f t="shared" si="3"/>
         <v>44626</v>
       </c>
@@ -8514,7 +8514,7 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="14">
+      <c r="A222" s="11">
         <f t="shared" si="3"/>
         <v>44633</v>
       </c>
@@ -8550,7 +8550,7 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="14">
+      <c r="A223" s="11">
         <f t="shared" si="3"/>
         <v>44640</v>
       </c>
@@ -8586,7 +8586,7 @@
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="14">
+      <c r="A224" s="11">
         <f t="shared" si="3"/>
         <v>44647</v>
       </c>
@@ -8622,7 +8622,7 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="14">
+      <c r="A225" s="11">
         <f t="shared" si="3"/>
         <v>44654</v>
       </c>
@@ -8658,7 +8658,7 @@
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="14">
+      <c r="A226" s="11">
         <f t="shared" si="3"/>
         <v>44661</v>
       </c>
@@ -8694,7 +8694,7 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="14">
+      <c r="A227" s="11">
         <f t="shared" si="3"/>
         <v>44668</v>
       </c>
@@ -8730,7 +8730,7 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="14">
+      <c r="A228" s="11">
         <f t="shared" si="3"/>
         <v>44675</v>
       </c>
@@ -8766,7 +8766,7 @@
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="14">
+      <c r="A229" s="11">
         <f t="shared" si="3"/>
         <v>44682</v>
       </c>
@@ -8802,7 +8802,7 @@
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="14">
+      <c r="A230" s="11">
         <f t="shared" si="3"/>
         <v>44689</v>
       </c>
@@ -8838,7 +8838,7 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="14">
+      <c r="A231" s="11">
         <f t="shared" si="3"/>
         <v>44696</v>
       </c>
@@ -8874,7 +8874,7 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="14">
+      <c r="A232" s="11">
         <f t="shared" si="3"/>
         <v>44703</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="14">
+      <c r="A233" s="11">
         <f t="shared" si="3"/>
         <v>44710</v>
       </c>
@@ -8946,7 +8946,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="14">
+      <c r="A234" s="11">
         <f t="shared" si="3"/>
         <v>44717</v>
       </c>
@@ -8982,7 +8982,7 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="14">
+      <c r="A235" s="11">
         <f t="shared" si="3"/>
         <v>44724</v>
       </c>
@@ -9018,7 +9018,7 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="14">
+      <c r="A236" s="11">
         <f t="shared" si="3"/>
         <v>44731</v>
       </c>
@@ -9054,7 +9054,7 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="14">
+      <c r="A237" s="11">
         <f t="shared" si="3"/>
         <v>44738</v>
       </c>
@@ -9090,7 +9090,7 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="14">
+      <c r="A238" s="11">
         <f t="shared" si="3"/>
         <v>44745</v>
       </c>
@@ -9126,7 +9126,7 @@
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="14">
+      <c r="A239" s="11">
         <f t="shared" si="3"/>
         <v>44752</v>
       </c>
@@ -9162,7 +9162,7 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="14">
+      <c r="A240" s="11">
         <f t="shared" si="3"/>
         <v>44759</v>
       </c>
@@ -9198,7 +9198,7 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="14">
+      <c r="A241" s="11">
         <f t="shared" si="3"/>
         <v>44766</v>
       </c>
@@ -9234,7 +9234,7 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="14">
+      <c r="A242" s="11">
         <f t="shared" si="3"/>
         <v>44773</v>
       </c>
@@ -9270,7 +9270,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="14">
+      <c r="A243" s="11">
         <f t="shared" si="3"/>
         <v>44780</v>
       </c>
@@ -9306,7 +9306,7 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="14">
+      <c r="A244" s="11">
         <f t="shared" si="3"/>
         <v>44787</v>
       </c>
@@ -9342,7 +9342,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="14">
+      <c r="A245" s="11">
         <f t="shared" si="3"/>
         <v>44794</v>
       </c>
@@ -9378,7 +9378,7 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="14">
+      <c r="A246" s="11">
         <f t="shared" si="3"/>
         <v>44801</v>
       </c>
@@ -9414,7 +9414,7 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="14">
+      <c r="A247" s="11">
         <f t="shared" si="3"/>
         <v>44808</v>
       </c>
@@ -9450,7 +9450,7 @@
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="14">
+      <c r="A248" s="11">
         <f t="shared" si="3"/>
         <v>44815</v>
       </c>
@@ -9486,7 +9486,7 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="14">
+      <c r="A249" s="11">
         <f t="shared" si="3"/>
         <v>44822</v>
       </c>
@@ -9522,7 +9522,7 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="14">
+      <c r="A250" s="11">
         <f t="shared" si="3"/>
         <v>44829</v>
       </c>
@@ -9558,7 +9558,7 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="14">
+      <c r="A251" s="11">
         <f t="shared" si="3"/>
         <v>44836</v>
       </c>
@@ -9594,7 +9594,7 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="14">
+      <c r="A252" s="11">
         <f t="shared" si="3"/>
         <v>44843</v>
       </c>
@@ -9630,7 +9630,7 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="14">
+      <c r="A253" s="11">
         <f t="shared" si="3"/>
         <v>44850</v>
       </c>
@@ -9666,7 +9666,7 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="14">
+      <c r="A254" s="11">
         <f t="shared" si="3"/>
         <v>44857</v>
       </c>
@@ -9702,7 +9702,7 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="14">
+      <c r="A255" s="11">
         <f t="shared" si="3"/>
         <v>44864</v>
       </c>
@@ -9738,7 +9738,7 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="14">
+      <c r="A256" s="11">
         <f t="shared" si="3"/>
         <v>44871</v>
       </c>
@@ -9774,7 +9774,7 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="14">
+      <c r="A257" s="11">
         <f t="shared" si="3"/>
         <v>44878</v>
       </c>
@@ -9810,7 +9810,7 @@
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="14">
+      <c r="A258" s="11">
         <f t="shared" si="3"/>
         <v>44885</v>
       </c>
@@ -9846,7 +9846,7 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="14">
+      <c r="A259" s="11">
         <f t="shared" si="3"/>
         <v>44892</v>
       </c>
@@ -9882,7 +9882,7 @@
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="14">
+      <c r="A260" s="11">
         <f t="shared" ref="A260:A323" si="4">B260-1</f>
         <v>44899</v>
       </c>
@@ -9918,7 +9918,7 @@
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="14">
+      <c r="A261" s="11">
         <f t="shared" si="4"/>
         <v>44906</v>
       </c>
@@ -9954,7 +9954,7 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="14">
+      <c r="A262" s="11">
         <f t="shared" si="4"/>
         <v>44913</v>
       </c>
@@ -9990,7 +9990,7 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="14">
+      <c r="A263" s="11">
         <f t="shared" si="4"/>
         <v>44920</v>
       </c>
@@ -10026,7 +10026,7 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="14">
+      <c r="A264" s="11">
         <f t="shared" si="4"/>
         <v>44927</v>
       </c>
@@ -10062,7 +10062,7 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="14">
+      <c r="A265" s="11">
         <f t="shared" si="4"/>
         <v>44934</v>
       </c>
@@ -10098,7 +10098,7 @@
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="14">
+      <c r="A266" s="11">
         <f t="shared" si="4"/>
         <v>44941</v>
       </c>
@@ -10134,7 +10134,7 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="14">
+      <c r="A267" s="11">
         <f t="shared" si="4"/>
         <v>44948</v>
       </c>
@@ -10170,7 +10170,7 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="14">
+      <c r="A268" s="11">
         <f t="shared" si="4"/>
         <v>44955</v>
       </c>
@@ -10206,7 +10206,7 @@
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A269" s="14">
+      <c r="A269" s="11">
         <f t="shared" si="4"/>
         <v>44962</v>
       </c>
@@ -10242,7 +10242,7 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="14">
+      <c r="A270" s="11">
         <f t="shared" si="4"/>
         <v>44969</v>
       </c>
@@ -10278,7 +10278,7 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="14">
+      <c r="A271" s="11">
         <f t="shared" si="4"/>
         <v>44976</v>
       </c>
@@ -10314,7 +10314,7 @@
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="14">
+      <c r="A272" s="11">
         <f t="shared" si="4"/>
         <v>44983</v>
       </c>
@@ -10350,7 +10350,7 @@
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" s="14">
+      <c r="A273" s="11">
         <f t="shared" si="4"/>
         <v>44990</v>
       </c>
@@ -10386,7 +10386,7 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A274" s="14">
+      <c r="A274" s="11">
         <f t="shared" si="4"/>
         <v>44997</v>
       </c>
@@ -10422,7 +10422,7 @@
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A275" s="14">
+      <c r="A275" s="11">
         <f t="shared" si="4"/>
         <v>45004</v>
       </c>
@@ -10458,7 +10458,7 @@
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A276" s="14">
+      <c r="A276" s="11">
         <f t="shared" si="4"/>
         <v>45011</v>
       </c>
@@ -10494,7 +10494,7 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A277" s="14">
+      <c r="A277" s="11">
         <f t="shared" si="4"/>
         <v>45018</v>
       </c>
@@ -10530,7 +10530,7 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A278" s="14">
+      <c r="A278" s="11">
         <f t="shared" si="4"/>
         <v>45025</v>
       </c>
@@ -10566,7 +10566,7 @@
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="14">
+      <c r="A279" s="11">
         <f t="shared" si="4"/>
         <v>45032</v>
       </c>
@@ -10602,7 +10602,7 @@
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="14">
+      <c r="A280" s="11">
         <f t="shared" si="4"/>
         <v>45039</v>
       </c>
@@ -10638,7 +10638,7 @@
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="14">
+      <c r="A281" s="11">
         <f t="shared" si="4"/>
         <v>45046</v>
       </c>
@@ -10674,7 +10674,7 @@
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A282" s="14">
+      <c r="A282" s="11">
         <f t="shared" si="4"/>
         <v>45053</v>
       </c>
@@ -10710,7 +10710,7 @@
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A283" s="14">
+      <c r="A283" s="11">
         <f t="shared" si="4"/>
         <v>45060</v>
       </c>
@@ -10746,7 +10746,7 @@
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A284" s="14">
+      <c r="A284" s="11">
         <f t="shared" si="4"/>
         <v>45067</v>
       </c>
@@ -10782,7 +10782,7 @@
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A285" s="14">
+      <c r="A285" s="11">
         <f t="shared" si="4"/>
         <v>45074</v>
       </c>
@@ -10818,7 +10818,7 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="14">
+      <c r="A286" s="11">
         <f t="shared" si="4"/>
         <v>45081</v>
       </c>
@@ -10854,7 +10854,7 @@
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="14">
+      <c r="A287" s="11">
         <f t="shared" si="4"/>
         <v>45088</v>
       </c>
@@ -10890,7 +10890,7 @@
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A288" s="14">
+      <c r="A288" s="11">
         <f t="shared" si="4"/>
         <v>45095</v>
       </c>
@@ -10926,7 +10926,7 @@
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A289" s="14">
+      <c r="A289" s="11">
         <f t="shared" si="4"/>
         <v>45102</v>
       </c>
@@ -10962,7 +10962,7 @@
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A290" s="14">
+      <c r="A290" s="11">
         <f t="shared" si="4"/>
         <v>45109</v>
       </c>
@@ -10998,7 +10998,7 @@
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A291" s="14">
+      <c r="A291" s="11">
         <f t="shared" si="4"/>
         <v>45116</v>
       </c>
@@ -11034,7 +11034,7 @@
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A292" s="14">
+      <c r="A292" s="11">
         <f t="shared" si="4"/>
         <v>45123</v>
       </c>
@@ -11070,7 +11070,7 @@
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A293" s="14">
+      <c r="A293" s="11">
         <f t="shared" si="4"/>
         <v>45130</v>
       </c>
@@ -11106,7 +11106,7 @@
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A294" s="14">
+      <c r="A294" s="11">
         <f t="shared" si="4"/>
         <v>45137</v>
       </c>
@@ -11142,7 +11142,7 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A295" s="14">
+      <c r="A295" s="11">
         <f t="shared" si="4"/>
         <v>45144</v>
       </c>
@@ -11178,7 +11178,7 @@
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A296" s="14">
+      <c r="A296" s="11">
         <f t="shared" si="4"/>
         <v>45151</v>
       </c>
@@ -11214,7 +11214,7 @@
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A297" s="14">
+      <c r="A297" s="11">
         <f t="shared" si="4"/>
         <v>45158</v>
       </c>
@@ -11250,7 +11250,7 @@
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A298" s="14">
+      <c r="A298" s="11">
         <f t="shared" si="4"/>
         <v>45165</v>
       </c>
@@ -11286,7 +11286,7 @@
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A299" s="14">
+      <c r="A299" s="11">
         <f t="shared" si="4"/>
         <v>45172</v>
       </c>
@@ -11322,7 +11322,7 @@
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A300" s="14">
+      <c r="A300" s="11">
         <f t="shared" si="4"/>
         <v>45179</v>
       </c>
@@ -11358,7 +11358,7 @@
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A301" s="14">
+      <c r="A301" s="11">
         <f t="shared" si="4"/>
         <v>45186</v>
       </c>
@@ -11394,7 +11394,7 @@
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A302" s="14">
+      <c r="A302" s="11">
         <f t="shared" si="4"/>
         <v>45193</v>
       </c>
@@ -11430,7 +11430,7 @@
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A303" s="14">
+      <c r="A303" s="11">
         <f t="shared" si="4"/>
         <v>45200</v>
       </c>
@@ -11466,7 +11466,7 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A304" s="14">
+      <c r="A304" s="11">
         <f t="shared" si="4"/>
         <v>45207</v>
       </c>
@@ -11502,7 +11502,7 @@
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A305" s="14">
+      <c r="A305" s="11">
         <f t="shared" si="4"/>
         <v>45214</v>
       </c>
@@ -11538,7 +11538,7 @@
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A306" s="14">
+      <c r="A306" s="11">
         <f t="shared" si="4"/>
         <v>45221</v>
       </c>
@@ -11574,7 +11574,7 @@
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A307" s="14">
+      <c r="A307" s="11">
         <f t="shared" si="4"/>
         <v>45228</v>
       </c>
@@ -11610,7 +11610,7 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A308" s="14">
+      <c r="A308" s="11">
         <f t="shared" si="4"/>
         <v>45235</v>
       </c>
@@ -11646,7 +11646,7 @@
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A309" s="14">
+      <c r="A309" s="11">
         <f t="shared" si="4"/>
         <v>45242</v>
       </c>
@@ -11682,7 +11682,7 @@
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A310" s="14">
+      <c r="A310" s="11">
         <f t="shared" si="4"/>
         <v>45249</v>
       </c>
@@ -11718,7 +11718,7 @@
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A311" s="14">
+      <c r="A311" s="11">
         <f t="shared" si="4"/>
         <v>45256</v>
       </c>
@@ -11754,7 +11754,7 @@
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A312" s="14">
+      <c r="A312" s="11">
         <f t="shared" si="4"/>
         <v>45263</v>
       </c>
@@ -11790,7 +11790,7 @@
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A313" s="14">
+      <c r="A313" s="11">
         <f t="shared" si="4"/>
         <v>45270</v>
       </c>
@@ -11826,7 +11826,7 @@
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A314" s="14">
+      <c r="A314" s="11">
         <f t="shared" si="4"/>
         <v>45277</v>
       </c>
@@ -11862,7 +11862,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A315" s="14">
+      <c r="A315" s="11">
         <f t="shared" si="4"/>
         <v>45284</v>
       </c>
@@ -11898,7 +11898,7 @@
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A316" s="14">
+      <c r="A316" s="11">
         <f t="shared" si="4"/>
         <v>45291</v>
       </c>
@@ -11934,7 +11934,7 @@
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A317" s="14">
+      <c r="A317" s="11">
         <f t="shared" si="4"/>
         <v>45298</v>
       </c>
@@ -11970,7 +11970,7 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A318" s="14">
+      <c r="A318" s="11">
         <f t="shared" si="4"/>
         <v>45305</v>
       </c>
@@ -12006,7 +12006,7 @@
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A319" s="14">
+      <c r="A319" s="11">
         <f t="shared" si="4"/>
         <v>45312</v>
       </c>
@@ -12042,7 +12042,7 @@
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A320" s="14">
+      <c r="A320" s="11">
         <f t="shared" si="4"/>
         <v>45319</v>
       </c>
@@ -12078,7 +12078,7 @@
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A321" s="14">
+      <c r="A321" s="11">
         <f t="shared" si="4"/>
         <v>45326</v>
       </c>
@@ -12114,7 +12114,7 @@
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A322" s="14">
+      <c r="A322" s="11">
         <f t="shared" si="4"/>
         <v>45333</v>
       </c>
@@ -12150,7 +12150,7 @@
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A323" s="14">
+      <c r="A323" s="11">
         <f t="shared" si="4"/>
         <v>45340</v>
       </c>
@@ -12186,7 +12186,7 @@
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A324" s="14">
+      <c r="A324" s="11">
         <f t="shared" ref="A324:A387" si="5">B324-1</f>
         <v>45347</v>
       </c>
@@ -12222,7 +12222,7 @@
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A325" s="14">
+      <c r="A325" s="11">
         <f t="shared" si="5"/>
         <v>45354</v>
       </c>
@@ -12258,7 +12258,7 @@
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A326" s="14">
+      <c r="A326" s="11">
         <f t="shared" si="5"/>
         <v>45361</v>
       </c>
@@ -12294,7 +12294,7 @@
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A327" s="14">
+      <c r="A327" s="11">
         <f t="shared" si="5"/>
         <v>45368</v>
       </c>
@@ -12330,7 +12330,7 @@
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A328" s="14">
+      <c r="A328" s="11">
         <f t="shared" si="5"/>
         <v>45375</v>
       </c>
@@ -12366,7 +12366,7 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A329" s="14">
+      <c r="A329" s="11">
         <f t="shared" si="5"/>
         <v>45382</v>
       </c>
@@ -12402,7 +12402,7 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A330" s="14">
+      <c r="A330" s="11">
         <f t="shared" si="5"/>
         <v>45389</v>
       </c>
@@ -12438,7 +12438,7 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A331" s="14">
+      <c r="A331" s="11">
         <f t="shared" si="5"/>
         <v>45396</v>
       </c>
@@ -12474,7 +12474,7 @@
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A332" s="14">
+      <c r="A332" s="11">
         <f t="shared" si="5"/>
         <v>45403</v>
       </c>
@@ -12510,7 +12510,7 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A333" s="14">
+      <c r="A333" s="11">
         <f t="shared" si="5"/>
         <v>45410</v>
       </c>
@@ -12546,7 +12546,7 @@
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A334" s="14">
+      <c r="A334" s="11">
         <f t="shared" si="5"/>
         <v>45417</v>
       </c>
@@ -12582,7 +12582,7 @@
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A335" s="14">
+      <c r="A335" s="11">
         <f t="shared" si="5"/>
         <v>45424</v>
       </c>
@@ -12618,7 +12618,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A336" s="14">
+      <c r="A336" s="11">
         <f t="shared" si="5"/>
         <v>45431</v>
       </c>
@@ -12654,7 +12654,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A337" s="14">
+      <c r="A337" s="11">
         <f t="shared" si="5"/>
         <v>45438</v>
       </c>
@@ -12690,7 +12690,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A338" s="14">
+      <c r="A338" s="11">
         <f t="shared" si="5"/>
         <v>45445</v>
       </c>
@@ -12726,7 +12726,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A339" s="14">
+      <c r="A339" s="11">
         <f t="shared" si="5"/>
         <v>45452</v>
       </c>
@@ -12762,7 +12762,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A340" s="14">
+      <c r="A340" s="11">
         <f t="shared" si="5"/>
         <v>45459</v>
       </c>
@@ -12798,7 +12798,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A341" s="14">
+      <c r="A341" s="11">
         <f t="shared" si="5"/>
         <v>45466</v>
       </c>
@@ -12834,7 +12834,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A342" s="14">
+      <c r="A342" s="11">
         <f t="shared" si="5"/>
         <v>45473</v>
       </c>
@@ -12870,7 +12870,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A343" s="14">
+      <c r="A343" s="11">
         <f t="shared" si="5"/>
         <v>45480</v>
       </c>
@@ -12906,7 +12906,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A344" s="14">
+      <c r="A344" s="11">
         <f t="shared" si="5"/>
         <v>45487</v>
       </c>
@@ -12942,7 +12942,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A345" s="14">
+      <c r="A345" s="11">
         <f t="shared" si="5"/>
         <v>45494</v>
       </c>
@@ -12978,7 +12978,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A346" s="14">
+      <c r="A346" s="11">
         <f t="shared" si="5"/>
         <v>45501</v>
       </c>
@@ -13014,7 +13014,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A347" s="14">
+      <c r="A347" s="11">
         <f t="shared" si="5"/>
         <v>45508</v>
       </c>
@@ -13050,7 +13050,7 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A348" s="14">
+      <c r="A348" s="11">
         <f t="shared" si="5"/>
         <v>45515</v>
       </c>
@@ -13086,7 +13086,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A349" s="14">
+      <c r="A349" s="11">
         <f t="shared" si="5"/>
         <v>45522</v>
       </c>
@@ -13122,7 +13122,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A350" s="14">
+      <c r="A350" s="11">
         <f t="shared" si="5"/>
         <v>45529</v>
       </c>
@@ -13158,7 +13158,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A351" s="14">
+      <c r="A351" s="11">
         <f t="shared" si="5"/>
         <v>45536</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A352" s="14">
+      <c r="A352" s="11">
         <f t="shared" si="5"/>
         <v>45543</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A353" s="14">
+      <c r="A353" s="11">
         <f t="shared" si="5"/>
         <v>45550</v>
       </c>
@@ -13266,7 +13266,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A354" s="14">
+      <c r="A354" s="11">
         <f t="shared" si="5"/>
         <v>45557</v>
       </c>
@@ -13302,7 +13302,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A355" s="14">
+      <c r="A355" s="11">
         <f t="shared" si="5"/>
         <v>45564</v>
       </c>
@@ -13338,7 +13338,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A356" s="14">
+      <c r="A356" s="11">
         <f t="shared" si="5"/>
         <v>45571</v>
       </c>
@@ -13374,7 +13374,7 @@
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A357" s="14">
+      <c r="A357" s="11">
         <f t="shared" si="5"/>
         <v>45578</v>
       </c>
@@ -13410,7 +13410,7 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A358" s="14">
+      <c r="A358" s="11">
         <f t="shared" si="5"/>
         <v>45585</v>
       </c>
@@ -13446,7 +13446,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A359" s="14">
+      <c r="A359" s="11">
         <f t="shared" si="5"/>
         <v>45592</v>
       </c>
@@ -13482,7 +13482,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A360" s="14">
+      <c r="A360" s="11">
         <f t="shared" si="5"/>
         <v>45599</v>
       </c>
@@ -13518,7 +13518,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A361" s="14">
+      <c r="A361" s="11">
         <f t="shared" si="5"/>
         <v>45606</v>
       </c>
@@ -13554,7 +13554,7 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A362" s="14">
+      <c r="A362" s="11">
         <f t="shared" si="5"/>
         <v>45613</v>
       </c>
@@ -13590,7 +13590,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A363" s="14">
+      <c r="A363" s="11">
         <f t="shared" si="5"/>
         <v>45620</v>
       </c>
@@ -13626,7 +13626,7 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A364" s="14">
+      <c r="A364" s="11">
         <f t="shared" si="5"/>
         <v>45627</v>
       </c>
@@ -13662,7 +13662,7 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A365" s="14">
+      <c r="A365" s="11">
         <f t="shared" si="5"/>
         <v>45634</v>
       </c>
@@ -13698,7 +13698,7 @@
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A366" s="14">
+      <c r="A366" s="11">
         <f t="shared" si="5"/>
         <v>45641</v>
       </c>
@@ -13734,7 +13734,7 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A367" s="14">
+      <c r="A367" s="11">
         <f t="shared" si="5"/>
         <v>45648</v>
       </c>
@@ -13770,7 +13770,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A368" s="14">
+      <c r="A368" s="11">
         <f t="shared" si="5"/>
         <v>45655</v>
       </c>
@@ -13806,7 +13806,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A369" s="14">
+      <c r="A369" s="11">
         <f t="shared" si="5"/>
         <v>45662</v>
       </c>
@@ -13842,7 +13842,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A370" s="14">
+      <c r="A370" s="11">
         <f t="shared" si="5"/>
         <v>45669</v>
       </c>
@@ -13878,7 +13878,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A371" s="14">
+      <c r="A371" s="11">
         <f t="shared" si="5"/>
         <v>45676</v>
       </c>
@@ -13914,7 +13914,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A372" s="14">
+      <c r="A372" s="11">
         <f t="shared" si="5"/>
         <v>45683</v>
       </c>
@@ -13950,7 +13950,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A373" s="14">
+      <c r="A373" s="11">
         <f t="shared" si="5"/>
         <v>45690</v>
       </c>
@@ -13986,7 +13986,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A374" s="14">
+      <c r="A374" s="11">
         <f t="shared" si="5"/>
         <v>45697</v>
       </c>
@@ -14022,7 +14022,7 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A375" s="14">
+      <c r="A375" s="11">
         <f t="shared" si="5"/>
         <v>45704</v>
       </c>
@@ -14058,7 +14058,7 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A376" s="14">
+      <c r="A376" s="11">
         <f t="shared" si="5"/>
         <v>45711</v>
       </c>
@@ -14094,7 +14094,7 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A377" s="14">
+      <c r="A377" s="11">
         <f t="shared" si="5"/>
         <v>45718</v>
       </c>
@@ -14130,7 +14130,7 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A378" s="14">
+      <c r="A378" s="11">
         <f t="shared" si="5"/>
         <v>45725</v>
       </c>
@@ -14166,7 +14166,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A379" s="14">
+      <c r="A379" s="11">
         <f t="shared" si="5"/>
         <v>45732</v>
       </c>
@@ -14202,7 +14202,7 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A380" s="14">
+      <c r="A380" s="11">
         <f t="shared" si="5"/>
         <v>45739</v>
       </c>
@@ -14238,7 +14238,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A381" s="14">
+      <c r="A381" s="11">
         <f t="shared" si="5"/>
         <v>45746</v>
       </c>
@@ -14274,7 +14274,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A382" s="14">
+      <c r="A382" s="11">
         <f t="shared" si="5"/>
         <v>45753</v>
       </c>
@@ -14310,7 +14310,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A383" s="14">
+      <c r="A383" s="11">
         <f t="shared" si="5"/>
         <v>45760</v>
       </c>
@@ -14346,7 +14346,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A384" s="14">
+      <c r="A384" s="11">
         <f t="shared" si="5"/>
         <v>45767</v>
       </c>
@@ -14382,7 +14382,7 @@
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A385" s="14">
+      <c r="A385" s="11">
         <f t="shared" si="5"/>
         <v>45774</v>
       </c>
@@ -14418,7 +14418,7 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A386" s="14">
+      <c r="A386" s="11">
         <f t="shared" si="5"/>
         <v>45781</v>
       </c>
@@ -14454,7 +14454,7 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A387" s="14">
+      <c r="A387" s="11">
         <f t="shared" si="5"/>
         <v>45788</v>
       </c>
@@ -14490,7 +14490,7 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A388" s="14">
+      <c r="A388" s="11">
         <f t="shared" ref="A388:A419" si="6">B388-1</f>
         <v>45795</v>
       </c>
@@ -14526,7 +14526,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A389" s="14">
+      <c r="A389" s="11">
         <f t="shared" si="6"/>
         <v>45802</v>
       </c>
@@ -14562,7 +14562,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A390" s="14">
+      <c r="A390" s="11">
         <f t="shared" si="6"/>
         <v>45809</v>
       </c>
@@ -14598,7 +14598,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A391" s="14">
+      <c r="A391" s="11">
         <f t="shared" si="6"/>
         <v>45816</v>
       </c>
@@ -14634,7 +14634,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A392" s="14">
+      <c r="A392" s="11">
         <f t="shared" si="6"/>
         <v>45823</v>
       </c>
@@ -14670,7 +14670,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A393" s="14">
+      <c r="A393" s="11">
         <f t="shared" si="6"/>
         <v>45830</v>
       </c>
@@ -14706,7 +14706,7 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A394" s="14">
+      <c r="A394" s="11">
         <f t="shared" si="6"/>
         <v>45837</v>
       </c>
@@ -14742,7 +14742,7 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A395" s="14">
+      <c r="A395" s="11">
         <f t="shared" si="6"/>
         <v>45844</v>
       </c>
@@ -14778,7 +14778,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A396" s="14">
+      <c r="A396" s="11">
         <f t="shared" si="6"/>
         <v>45851</v>
       </c>
@@ -14814,7 +14814,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A397" s="14">
+      <c r="A397" s="11">
         <f t="shared" si="6"/>
         <v>45858</v>
       </c>
@@ -14850,7 +14850,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A398" s="14">
+      <c r="A398" s="11">
         <f t="shared" si="6"/>
         <v>45865</v>
       </c>
@@ -14886,7 +14886,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A399" s="14">
+      <c r="A399" s="11">
         <f t="shared" si="6"/>
         <v>45872</v>
       </c>
@@ -14922,7 +14922,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A400" s="14">
+      <c r="A400" s="11">
         <f t="shared" si="6"/>
         <v>45879</v>
       </c>
@@ -14958,7 +14958,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A401" s="14">
+      <c r="A401" s="11">
         <f t="shared" si="6"/>
         <v>45886</v>
       </c>
@@ -14994,7 +14994,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A402" s="14">
+      <c r="A402" s="11">
         <f t="shared" si="6"/>
         <v>45893</v>
       </c>
@@ -15030,7 +15030,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A403" s="14">
+      <c r="A403" s="11">
         <f t="shared" si="6"/>
         <v>45900</v>
       </c>
@@ -15066,7 +15066,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A404" s="14">
+      <c r="A404" s="11">
         <f t="shared" si="6"/>
         <v>45907</v>
       </c>
@@ -15102,7 +15102,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A405" s="14">
+      <c r="A405" s="11">
         <f t="shared" si="6"/>
         <v>45914</v>
       </c>
@@ -15138,7 +15138,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A406" s="14">
+      <c r="A406" s="11">
         <f t="shared" si="6"/>
         <v>45921</v>
       </c>
@@ -15174,7 +15174,7 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A407" s="14">
+      <c r="A407" s="11">
         <f t="shared" si="6"/>
         <v>45928</v>
       </c>
@@ -15210,7 +15210,7 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A408" s="14">
+      <c r="A408" s="11">
         <f t="shared" si="6"/>
         <v>45935</v>
       </c>
@@ -15246,7 +15246,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A409" s="14">
+      <c r="A409" s="11">
         <f t="shared" si="6"/>
         <v>45942</v>
       </c>
@@ -15282,7 +15282,7 @@
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A410" s="14">
+      <c r="A410" s="11">
         <f t="shared" si="6"/>
         <v>45949</v>
       </c>
@@ -15318,7 +15318,7 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A411" s="14">
+      <c r="A411" s="11">
         <f t="shared" si="6"/>
         <v>45956</v>
       </c>
@@ -15354,7 +15354,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A412" s="14">
+      <c r="A412" s="11">
         <f t="shared" si="6"/>
         <v>45963</v>
       </c>
@@ -15390,7 +15390,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A413" s="14">
+      <c r="A413" s="11">
         <f t="shared" si="6"/>
         <v>45970</v>
       </c>
@@ -15426,7 +15426,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A414" s="14">
+      <c r="A414" s="11">
         <f t="shared" si="6"/>
         <v>45977</v>
       </c>
@@ -15462,7 +15462,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A415" s="14">
+      <c r="A415" s="11">
         <f t="shared" si="6"/>
         <v>45984</v>
       </c>
@@ -15498,7 +15498,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A416" s="14">
+      <c r="A416" s="11">
         <f t="shared" si="6"/>
         <v>45991</v>
       </c>
@@ -15534,7 +15534,7 @@
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A417" s="14">
+      <c r="A417" s="11">
         <f t="shared" si="6"/>
         <v>45998</v>
       </c>
@@ -15570,7 +15570,7 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A418" s="14">
+      <c r="A418" s="11">
         <f t="shared" si="6"/>
         <v>46005</v>
       </c>
@@ -15606,7 +15606,7 @@
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A419" s="14">
+      <c r="A419" s="11">
         <f t="shared" si="6"/>
         <v>46012</v>
       </c>
@@ -15642,7 +15642,7 @@
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A420" s="14">
+      <c r="A420" s="11">
         <f t="shared" ref="A420:A422" si="7">B420-1</f>
         <v>46026</v>
       </c>
@@ -15678,7 +15678,7 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A421" s="14">
+      <c r="A421" s="11">
         <f t="shared" si="7"/>
         <v>46033</v>
       </c>
@@ -15714,7 +15714,7 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A422" s="14">
+      <c r="A422" s="11">
         <f t="shared" si="7"/>
         <v>46040</v>
       </c>
@@ -15747,6 +15747,42 @@
       </c>
       <c r="K422" s="10">
         <v>4558</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A423" s="11">
+        <f t="shared" ref="A423" si="8">B423-1</f>
+        <v>46047</v>
+      </c>
+      <c r="B423" s="8">
+        <v>46048</v>
+      </c>
+      <c r="C423" s="9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D423" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E423" s="10">
+        <v>2014</v>
+      </c>
+      <c r="F423" s="10">
+        <v>1016</v>
+      </c>
+      <c r="G423" s="10">
+        <v>3432</v>
+      </c>
+      <c r="H423" s="10">
+        <v>982</v>
+      </c>
+      <c r="I423" s="10">
+        <v>896</v>
+      </c>
+      <c r="J423" s="10">
+        <v>218</v>
+      </c>
+      <c r="K423" s="10">
+        <v>4478</v>
       </c>
     </row>
   </sheetData>
@@ -15767,7 +15803,7 @@
   <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I17" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/data/freight/Baltic air freight index.xlsx
+++ b/data/freight/Baltic air freight index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD90F8F-F0E9-48ED-99AA-921BDD9C7A76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF940872-6E61-454E-813B-37505295C7CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16320" yWindow="780" windowWidth="19680" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="24">
   <si>
     <t>Shanghai Pudong Outbound</t>
   </si>
@@ -116,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -215,7 +215,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -235,20 +235,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -257,10 +257,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K423"/>
+  <dimension ref="A1:K424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L404" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L395" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H433" sqref="H433"/>
+      <selection pane="bottomRight" activeCell="G426" sqref="G426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="11">
-        <f t="shared" ref="A423" si="8">B423-1</f>
+        <f t="shared" ref="A423:A424" si="8">B423-1</f>
         <v>46047</v>
       </c>
       <c r="B423" s="8">
@@ -15783,6 +15783,42 @@
       </c>
       <c r="K423" s="10">
         <v>4478</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A424" s="11">
+        <f t="shared" si="8"/>
+        <v>46054</v>
+      </c>
+      <c r="B424" s="8">
+        <v>46055</v>
+      </c>
+      <c r="C424" s="9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D424" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E424" s="10">
+        <v>2096</v>
+      </c>
+      <c r="F424" s="10">
+        <v>1106</v>
+      </c>
+      <c r="G424" s="10">
+        <v>3436</v>
+      </c>
+      <c r="H424" s="10">
+        <v>1120</v>
+      </c>
+      <c r="I424" s="10">
+        <v>925</v>
+      </c>
+      <c r="J424" s="10">
+        <v>234</v>
+      </c>
+      <c r="K424" s="10">
+        <v>4714</v>
       </c>
     </row>
   </sheetData>
@@ -15794,7 +15830,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/freight/Baltic air freight index.xlsx
+++ b/data/freight/Baltic air freight index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF940872-6E61-454E-813B-37505295C7CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6350E44-7698-423F-83C1-161D2B7F945D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16320" yWindow="780" windowWidth="19680" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="24">
   <si>
     <t>Shanghai Pudong Outbound</t>
   </si>
@@ -545,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K424"/>
+  <dimension ref="A1:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L395" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G426" sqref="G426"/>
+      <selection pane="bottomRight" activeCell="N421" sqref="N421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="11">
-        <f t="shared" ref="A423:A424" si="8">B423-1</f>
+        <f t="shared" ref="A423:A425" si="8">B423-1</f>
         <v>46047</v>
       </c>
       <c r="B423" s="8">
@@ -15819,6 +15819,42 @@
       </c>
       <c r="K424" s="10">
         <v>4714</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A425" s="11">
+        <f t="shared" si="8"/>
+        <v>46061</v>
+      </c>
+      <c r="B425" s="8">
+        <v>46062</v>
+      </c>
+      <c r="C425" s="9">
+        <v>0.70833333333333204</v>
+      </c>
+      <c r="D425" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E425" s="10">
+        <v>2086</v>
+      </c>
+      <c r="F425" s="10">
+        <v>1065</v>
+      </c>
+      <c r="G425" s="10">
+        <v>3492</v>
+      </c>
+      <c r="H425" s="10">
+        <v>1090</v>
+      </c>
+      <c r="I425" s="10">
+        <v>851</v>
+      </c>
+      <c r="J425" s="10">
+        <v>220</v>
+      </c>
+      <c r="K425" s="10">
+        <v>4730</v>
       </c>
     </row>
   </sheetData>
@@ -15839,7 +15875,7 @@
   <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/data/freight/Baltic air freight index.xlsx
+++ b/data/freight/Baltic air freight index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/freight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6350E44-7698-423F-83C1-161D2B7F945D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC036D93-3321-D047-B5B4-0B5BCA04A0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="780" windowWidth="19680" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17000" yWindow="780" windowWidth="19000" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BAI" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="24">
   <si>
     <t>Shanghai Pudong Outbound</t>
   </si>
@@ -116,29 +127,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -160,7 +171,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -177,7 +188,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -215,7 +226,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -235,20 +246,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -257,17 +268,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,29 +556,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K425"/>
+  <dimension ref="A1:K426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="4" topLeftCell="L401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N421" sqref="N421"/>
+      <selection pane="bottomRight" activeCell="M426" sqref="M426"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="8" customWidth="1"/>
-    <col min="5" max="8" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="8" customWidth="1"/>
+    <col min="5" max="8" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -602,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -629,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="11">
         <f>B3-1</f>
         <v>43100</v>
@@ -665,7 +676,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="11">
         <f t="shared" ref="A4:A67" si="0">B4-1</f>
         <v>43107</v>
@@ -701,7 +712,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>43114</v>
@@ -737,7 +748,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>43121</v>
@@ -773,7 +784,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>43128</v>
@@ -809,7 +820,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>43135</v>
@@ -845,7 +856,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>43142</v>
@@ -881,7 +892,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>43149</v>
@@ -917,7 +928,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>43156</v>
@@ -953,7 +964,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>43163</v>
@@ -989,7 +1000,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>43170</v>
@@ -1025,7 +1036,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>43177</v>
@@ -1061,7 +1072,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>43184</v>
@@ -1097,7 +1108,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -1133,7 +1144,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>43198</v>
@@ -1169,7 +1180,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>43205</v>
@@ -1205,7 +1216,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>43212</v>
@@ -1241,7 +1252,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>43219</v>
@@ -1277,7 +1288,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>43226</v>
@@ -1313,7 +1324,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>43233</v>
@@ -1349,7 +1360,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>43240</v>
@@ -1385,7 +1396,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>43247</v>
@@ -1421,7 +1432,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>43254</v>
@@ -1457,7 +1468,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>43261</v>
@@ -1493,7 +1504,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>43268</v>
@@ -1529,7 +1540,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>43275</v>
@@ -1565,7 +1576,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -1601,7 +1612,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>43289</v>
@@ -1637,7 +1648,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>43296</v>
@@ -1673,7 +1684,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>43303</v>
@@ -1709,7 +1720,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>43310</v>
@@ -1745,7 +1756,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>43317</v>
@@ -1781,7 +1792,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>43324</v>
@@ -1817,7 +1828,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>43331</v>
@@ -1853,7 +1864,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>43338</v>
@@ -1889,7 +1900,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>43345</v>
@@ -1925,7 +1936,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="11">
         <f t="shared" si="0"/>
         <v>43352</v>
@@ -1961,7 +1972,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="11">
         <f t="shared" si="0"/>
         <v>43359</v>
@@ -1997,7 +2008,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>43366</v>
@@ -2033,7 +2044,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>43373</v>
@@ -2069,7 +2080,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>43380</v>
@@ -2105,7 +2116,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>43387</v>
@@ -2141,7 +2152,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>43394</v>
@@ -2177,7 +2188,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="11">
         <f t="shared" si="0"/>
         <v>43401</v>
@@ -2213,7 +2224,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>43408</v>
@@ -2249,7 +2260,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>43415</v>
@@ -2285,7 +2296,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>43422</v>
@@ -2321,7 +2332,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>43429</v>
@@ -2357,7 +2368,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="11">
         <f t="shared" si="0"/>
         <v>43436</v>
@@ -2393,7 +2404,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>43443</v>
@@ -2429,7 +2440,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="11">
         <f t="shared" si="0"/>
         <v>43450</v>
@@ -2465,7 +2476,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="11">
         <f t="shared" si="0"/>
         <v>43457</v>
@@ -2501,7 +2512,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="11">
         <f t="shared" si="0"/>
         <v>43464</v>
@@ -2537,7 +2548,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="11">
         <f t="shared" si="0"/>
         <v>43471</v>
@@ -2573,7 +2584,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="11">
         <f t="shared" si="0"/>
         <v>43478</v>
@@ -2609,7 +2620,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="11">
         <f t="shared" si="0"/>
         <v>43485</v>
@@ -2645,7 +2656,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="11">
         <f t="shared" si="0"/>
         <v>43492</v>
@@ -2681,7 +2692,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="11">
         <f t="shared" si="0"/>
         <v>43499</v>
@@ -2717,7 +2728,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="11">
         <f t="shared" si="0"/>
         <v>43506</v>
@@ -2753,7 +2764,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="11">
         <f t="shared" si="0"/>
         <v>43513</v>
@@ -2789,7 +2800,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="11">
         <f t="shared" si="0"/>
         <v>43520</v>
@@ -2825,7 +2836,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="11">
         <f t="shared" si="0"/>
         <v>43527</v>
@@ -2861,7 +2872,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" s="11">
         <f t="shared" si="0"/>
         <v>43534</v>
@@ -2897,7 +2908,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" s="11">
         <f t="shared" si="0"/>
         <v>43541</v>
@@ -2933,7 +2944,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" s="11">
         <f t="shared" si="0"/>
         <v>43548</v>
@@ -2969,7 +2980,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" s="11">
         <f t="shared" ref="A68:A131" si="1">B68-1</f>
         <v>43555</v>
@@ -3005,7 +3016,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" s="11">
         <f t="shared" si="1"/>
         <v>43562</v>
@@ -3041,7 +3052,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11">
       <c r="A70" s="11">
         <f t="shared" si="1"/>
         <v>43569</v>
@@ -3077,7 +3088,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" s="11">
         <f t="shared" si="1"/>
         <v>43576</v>
@@ -3113,7 +3124,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11">
       <c r="A72" s="11">
         <f t="shared" si="1"/>
         <v>43583</v>
@@ -3149,7 +3160,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11">
       <c r="A73" s="11">
         <f t="shared" si="1"/>
         <v>43590</v>
@@ -3185,7 +3196,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" s="11">
         <f t="shared" si="1"/>
         <v>43597</v>
@@ -3221,7 +3232,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" s="11">
         <f t="shared" si="1"/>
         <v>43604</v>
@@ -3257,7 +3268,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" s="11">
         <f t="shared" si="1"/>
         <v>43611</v>
@@ -3293,7 +3304,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" s="11">
         <f t="shared" si="1"/>
         <v>43618</v>
@@ -3329,7 +3340,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" s="11">
         <f t="shared" si="1"/>
         <v>43625</v>
@@ -3365,7 +3376,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" s="11">
         <f t="shared" si="1"/>
         <v>43632</v>
@@ -3401,7 +3412,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" s="11">
         <f t="shared" si="1"/>
         <v>43639</v>
@@ -3437,7 +3448,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81" s="11">
         <f t="shared" si="1"/>
         <v>43646</v>
@@ -3473,7 +3484,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82" s="11">
         <f t="shared" si="1"/>
         <v>43653</v>
@@ -3509,7 +3520,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11">
       <c r="A83" s="11">
         <f t="shared" si="1"/>
         <v>43660</v>
@@ -3545,7 +3556,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11">
       <c r="A84" s="11">
         <f t="shared" si="1"/>
         <v>43667</v>
@@ -3581,7 +3592,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11">
       <c r="A85" s="11">
         <f t="shared" si="1"/>
         <v>43674</v>
@@ -3617,7 +3628,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11">
       <c r="A86" s="11">
         <f t="shared" si="1"/>
         <v>43681</v>
@@ -3653,7 +3664,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11">
       <c r="A87" s="11">
         <f t="shared" si="1"/>
         <v>43688</v>
@@ -3689,7 +3700,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="A88" s="11">
         <f t="shared" si="1"/>
         <v>43695</v>
@@ -3725,7 +3736,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11">
       <c r="A89" s="11">
         <f t="shared" si="1"/>
         <v>43702</v>
@@ -3761,7 +3772,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11">
       <c r="A90" s="11">
         <f t="shared" si="1"/>
         <v>43709</v>
@@ -3797,7 +3808,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11">
       <c r="A91" s="11">
         <f t="shared" si="1"/>
         <v>43716</v>
@@ -3833,7 +3844,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11">
       <c r="A92" s="11">
         <f t="shared" si="1"/>
         <v>43723</v>
@@ -3869,7 +3880,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11">
       <c r="A93" s="11">
         <f t="shared" si="1"/>
         <v>43730</v>
@@ -3905,7 +3916,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11">
       <c r="A94" s="11">
         <f t="shared" si="1"/>
         <v>43737</v>
@@ -3941,7 +3952,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11">
       <c r="A95" s="11">
         <f t="shared" si="1"/>
         <v>43744</v>
@@ -3977,7 +3988,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11">
       <c r="A96" s="11">
         <f t="shared" si="1"/>
         <v>43751</v>
@@ -4013,7 +4024,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" s="11">
         <f t="shared" si="1"/>
         <v>43758</v>
@@ -4049,7 +4060,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" s="11">
         <f t="shared" si="1"/>
         <v>43765</v>
@@ -4085,7 +4096,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11">
       <c r="A99" s="11">
         <f t="shared" si="1"/>
         <v>43772</v>
@@ -4121,7 +4132,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11">
       <c r="A100" s="11">
         <f t="shared" si="1"/>
         <v>43779</v>
@@ -4157,7 +4168,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11">
       <c r="A101" s="11">
         <f t="shared" si="1"/>
         <v>43786</v>
@@ -4193,7 +4204,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11">
       <c r="A102" s="11">
         <f t="shared" si="1"/>
         <v>43793</v>
@@ -4229,7 +4240,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11">
       <c r="A103" s="11">
         <f t="shared" si="1"/>
         <v>43800</v>
@@ -4265,7 +4276,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11">
       <c r="A104" s="11">
         <f t="shared" si="1"/>
         <v>43807</v>
@@ -4301,7 +4312,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11">
       <c r="A105" s="11">
         <f t="shared" si="1"/>
         <v>43814</v>
@@ -4337,7 +4348,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11">
       <c r="A106" s="11">
         <f t="shared" si="1"/>
         <v>43821</v>
@@ -4373,7 +4384,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11">
       <c r="A107" s="11">
         <f t="shared" si="1"/>
         <v>43828</v>
@@ -4409,7 +4420,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11">
       <c r="A108" s="11">
         <f t="shared" si="1"/>
         <v>43835</v>
@@ -4445,7 +4456,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" s="11">
         <f t="shared" si="1"/>
         <v>43842</v>
@@ -4481,7 +4492,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" s="11">
         <f t="shared" si="1"/>
         <v>43849</v>
@@ -4517,7 +4528,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" s="11">
         <f t="shared" si="1"/>
         <v>43856</v>
@@ -4553,7 +4564,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" s="11">
         <f t="shared" si="1"/>
         <v>43863</v>
@@ -4589,7 +4600,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" s="11">
         <f t="shared" si="1"/>
         <v>43870</v>
@@ -4625,7 +4636,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" s="11">
         <f t="shared" si="1"/>
         <v>43877</v>
@@ -4661,7 +4672,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" s="11">
         <f t="shared" si="1"/>
         <v>43884</v>
@@ -4697,7 +4708,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" s="11">
         <f t="shared" si="1"/>
         <v>43891</v>
@@ -4733,7 +4744,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" s="11">
         <f t="shared" si="1"/>
         <v>43898</v>
@@ -4769,7 +4780,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" s="11">
         <f t="shared" si="1"/>
         <v>43905</v>
@@ -4805,7 +4816,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11">
       <c r="A119" s="11">
         <f t="shared" si="1"/>
         <v>43912</v>
@@ -4841,7 +4852,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11">
       <c r="A120" s="11">
         <f t="shared" si="1"/>
         <v>43919</v>
@@ -4877,7 +4888,7 @@
         <v>5641</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11">
       <c r="A121" s="11">
         <f t="shared" si="1"/>
         <v>43926</v>
@@ -4913,7 +4924,7 @@
         <v>6426</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11">
       <c r="A122" s="11">
         <f t="shared" si="1"/>
         <v>43933</v>
@@ -4949,7 +4960,7 @@
         <v>7284</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11">
       <c r="A123" s="11">
         <f t="shared" si="1"/>
         <v>43940</v>
@@ -4985,7 +4996,7 @@
         <v>7946</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11">
       <c r="A124" s="11">
         <f t="shared" si="1"/>
         <v>43947</v>
@@ -5021,7 +5032,7 @@
         <v>8608</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11">
       <c r="A125" s="11">
         <f t="shared" si="1"/>
         <v>43954</v>
@@ -5057,7 +5068,7 @@
         <v>9951</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11">
       <c r="A126" s="11">
         <f t="shared" si="1"/>
         <v>43961</v>
@@ -5093,7 +5104,7 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11">
       <c r="A127" s="11">
         <f t="shared" si="1"/>
         <v>43968</v>
@@ -5129,7 +5140,7 @@
         <v>11202</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11">
       <c r="A128" s="11">
         <f t="shared" si="1"/>
         <v>43975</v>
@@ -5165,7 +5176,7 @@
         <v>9824</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
         <v>43982</v>
@@ -5201,7 +5212,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
         <v>43989</v>
@@ -5237,7 +5248,7 @@
         <v>5993</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11">
       <c r="A131" s="11">
         <f t="shared" si="1"/>
         <v>43996</v>
@@ -5273,7 +5284,7 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11">
       <c r="A132" s="11">
         <f t="shared" ref="A132:A195" si="2">B132-1</f>
         <v>44003</v>
@@ -5309,7 +5320,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11">
       <c r="A133" s="11">
         <f t="shared" si="2"/>
         <v>44010</v>
@@ -5345,7 +5356,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11">
       <c r="A134" s="11">
         <f t="shared" si="2"/>
         <v>44017</v>
@@ -5381,7 +5392,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11">
       <c r="A135" s="11">
         <f t="shared" si="2"/>
         <v>44024</v>
@@ -5417,7 +5428,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11">
       <c r="A136" s="11">
         <f t="shared" si="2"/>
         <v>44031</v>
@@ -5453,7 +5464,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11">
       <c r="A137" s="11">
         <f t="shared" si="2"/>
         <v>44038</v>
@@ -5489,7 +5500,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11">
       <c r="A138" s="11">
         <f t="shared" si="2"/>
         <v>44045</v>
@@ -5525,7 +5536,7 @@
         <v>4535</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11">
       <c r="A139" s="11">
         <f t="shared" si="2"/>
         <v>44052</v>
@@ -5561,7 +5572,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11">
       <c r="A140" s="11">
         <f t="shared" si="2"/>
         <v>44059</v>
@@ -5597,7 +5608,7 @@
         <v>4121</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11">
       <c r="A141" s="11">
         <f t="shared" si="2"/>
         <v>44066</v>
@@ -5633,7 +5644,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11">
       <c r="A142" s="11">
         <f t="shared" si="2"/>
         <v>44073</v>
@@ -5669,7 +5680,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11">
       <c r="A143" s="11">
         <f t="shared" si="2"/>
         <v>44080</v>
@@ -5705,7 +5716,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11">
       <c r="A144" s="11">
         <f t="shared" si="2"/>
         <v>44087</v>
@@ -5741,7 +5752,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11">
       <c r="A145" s="11">
         <f t="shared" si="2"/>
         <v>44094</v>
@@ -5777,7 +5788,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11">
       <c r="A146" s="11">
         <f t="shared" si="2"/>
         <v>44101</v>
@@ -5813,7 +5824,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11">
       <c r="A147" s="11">
         <f t="shared" si="2"/>
         <v>44108</v>
@@ -5849,7 +5860,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11">
       <c r="A148" s="11">
         <f t="shared" si="2"/>
         <v>44115</v>
@@ -5885,7 +5896,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11">
       <c r="A149" s="11">
         <f t="shared" si="2"/>
         <v>44122</v>
@@ -5921,7 +5932,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11">
       <c r="A150" s="11">
         <f t="shared" si="2"/>
         <v>44129</v>
@@ -5957,7 +5968,7 @@
         <v>5696</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11">
       <c r="A151" s="11">
         <f t="shared" si="2"/>
         <v>44136</v>
@@ -5993,7 +6004,7 @@
         <v>6193</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11">
       <c r="A152" s="11">
         <f t="shared" si="2"/>
         <v>44143</v>
@@ -6029,7 +6040,7 @@
         <v>6336</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11">
       <c r="A153" s="11">
         <f t="shared" si="2"/>
         <v>44150</v>
@@ -6065,7 +6076,7 @@
         <v>6128</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11">
       <c r="A154" s="11">
         <f t="shared" si="2"/>
         <v>44157</v>
@@ -6101,7 +6112,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11">
       <c r="A155" s="11">
         <f t="shared" si="2"/>
         <v>44164</v>
@@ -6137,7 +6148,7 @@
         <v>6359</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11">
       <c r="A156" s="11">
         <f t="shared" si="2"/>
         <v>44171</v>
@@ -6173,7 +6184,7 @@
         <v>6501</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11">
       <c r="A157" s="11">
         <f t="shared" si="2"/>
         <v>44178</v>
@@ -6209,7 +6220,7 @@
         <v>6639</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11">
       <c r="A158" s="11">
         <f t="shared" si="2"/>
         <v>44185</v>
@@ -6245,7 +6256,7 @@
         <v>6623</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11">
       <c r="A159" s="11">
         <f t="shared" si="2"/>
         <v>44192</v>
@@ -6281,7 +6292,7 @@
         <v>6235</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11">
       <c r="A160" s="11">
         <f t="shared" si="2"/>
         <v>44199</v>
@@ -6317,7 +6328,7 @@
         <v>6313</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11">
       <c r="A161" s="11">
         <f t="shared" si="2"/>
         <v>44206</v>
@@ -6353,7 +6364,7 @@
         <v>5714</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11">
       <c r="A162" s="11">
         <f t="shared" si="2"/>
         <v>44213</v>
@@ -6389,7 +6400,7 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11">
       <c r="A163" s="11">
         <f t="shared" si="2"/>
         <v>44220</v>
@@ -6425,7 +6436,7 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11">
       <c r="A164" s="11">
         <f t="shared" si="2"/>
         <v>44227</v>
@@ -6461,7 +6472,7 @@
         <v>5245</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11">
       <c r="A165" s="11">
         <f t="shared" si="2"/>
         <v>44234</v>
@@ -6497,7 +6508,7 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11">
       <c r="A166" s="11">
         <f t="shared" si="2"/>
         <v>44241</v>
@@ -6533,7 +6544,7 @@
         <v>6333</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11">
       <c r="A167" s="11">
         <f t="shared" si="2"/>
         <v>44248</v>
@@ -6569,7 +6580,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11">
       <c r="A168" s="11">
         <f t="shared" si="2"/>
         <v>44255</v>
@@ -6605,7 +6616,7 @@
         <v>4791</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11">
       <c r="A169" s="11">
         <f t="shared" si="2"/>
         <v>44262</v>
@@ -6641,7 +6652,7 @@
         <v>4641</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11">
       <c r="A170" s="11">
         <f t="shared" si="2"/>
         <v>44269</v>
@@ -6677,7 +6688,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11">
       <c r="A171" s="11">
         <f t="shared" si="2"/>
         <v>44276</v>
@@ -6713,7 +6724,7 @@
         <v>4549</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11">
       <c r="A172" s="11">
         <f t="shared" si="2"/>
         <v>44283</v>
@@ -6749,7 +6760,7 @@
         <v>4728</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11">
       <c r="A173" s="11">
         <f t="shared" si="2"/>
         <v>44290</v>
@@ -6785,7 +6796,7 @@
         <v>5485</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11">
       <c r="A174" s="11">
         <f t="shared" si="2"/>
         <v>44297</v>
@@ -6821,7 +6832,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11">
       <c r="A175" s="11">
         <f t="shared" si="2"/>
         <v>44304</v>
@@ -6857,7 +6868,7 @@
         <v>5842</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11">
       <c r="A176" s="11">
         <f t="shared" si="2"/>
         <v>44311</v>
@@ -6893,7 +6904,7 @@
         <v>6366</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11">
       <c r="A177" s="11">
         <f t="shared" si="2"/>
         <v>44318</v>
@@ -6929,7 +6940,7 @@
         <v>6907</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11">
       <c r="A178" s="11">
         <f t="shared" si="2"/>
         <v>44325</v>
@@ -6965,7 +6976,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11">
       <c r="A179" s="11">
         <f t="shared" si="2"/>
         <v>44332</v>
@@ -7001,7 +7012,7 @@
         <v>6092</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11">
       <c r="A180" s="11">
         <f t="shared" si="2"/>
         <v>44339</v>
@@ -7037,7 +7048,7 @@
         <v>6452</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11">
       <c r="A181" s="11">
         <f t="shared" si="2"/>
         <v>44346</v>
@@ -7073,7 +7084,7 @@
         <v>5834</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11">
       <c r="A182" s="11">
         <f t="shared" si="2"/>
         <v>44353</v>
@@ -7109,7 +7120,7 @@
         <v>5722</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11">
       <c r="A183" s="11">
         <f t="shared" si="2"/>
         <v>44360</v>
@@ -7145,7 +7156,7 @@
         <v>5443</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11">
       <c r="A184" s="11">
         <f t="shared" si="2"/>
         <v>44367</v>
@@ -7181,7 +7192,7 @@
         <v>4973</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11">
       <c r="A185" s="11">
         <f t="shared" si="2"/>
         <v>44374</v>
@@ -7217,7 +7228,7 @@
         <v>5258</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11">
       <c r="A186" s="11">
         <f t="shared" si="2"/>
         <v>44381</v>
@@ -7253,7 +7264,7 @@
         <v>5338</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11">
       <c r="A187" s="11">
         <f t="shared" si="2"/>
         <v>44388</v>
@@ -7289,7 +7300,7 @@
         <v>5987</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11">
       <c r="A188" s="11">
         <f t="shared" si="2"/>
         <v>44395</v>
@@ -7325,7 +7336,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11">
       <c r="A189" s="11">
         <f t="shared" si="2"/>
         <v>44402</v>
@@ -7361,7 +7372,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11">
       <c r="A190" s="11">
         <f t="shared" si="2"/>
         <v>44409</v>
@@ -7397,7 +7408,7 @@
         <v>5883</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11">
       <c r="A191" s="11">
         <f t="shared" si="2"/>
         <v>44416</v>
@@ -7433,7 +7444,7 @@
         <v>5967</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11">
       <c r="A192" s="11">
         <f t="shared" si="2"/>
         <v>44423</v>
@@ -7469,7 +7480,7 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11">
       <c r="A193" s="11">
         <f t="shared" si="2"/>
         <v>44430</v>
@@ -7505,7 +7516,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11">
       <c r="A194" s="11">
         <f t="shared" si="2"/>
         <v>44437</v>
@@ -7541,7 +7552,7 @@
         <v>7552</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11">
       <c r="A195" s="11">
         <f t="shared" si="2"/>
         <v>44444</v>
@@ -7577,7 +7588,7 @@
         <v>8099</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11">
       <c r="A196" s="11">
         <f t="shared" ref="A196:A259" si="3">B196-1</f>
         <v>44451</v>
@@ -7613,7 +7624,7 @@
         <v>8281</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11">
       <c r="A197" s="11">
         <f t="shared" si="3"/>
         <v>44458</v>
@@ -7649,7 +7660,7 @@
         <v>9021</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11">
       <c r="A198" s="11">
         <f t="shared" si="3"/>
         <v>44465</v>
@@ -7685,7 +7696,7 @@
         <v>9364</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11">
       <c r="A199" s="11">
         <f t="shared" si="3"/>
         <v>44472</v>
@@ -7721,7 +7732,7 @@
         <v>9090</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11">
       <c r="A200" s="11">
         <f t="shared" si="3"/>
         <v>44479</v>
@@ -7757,7 +7768,7 @@
         <v>8936</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11">
       <c r="A201" s="11">
         <f t="shared" si="3"/>
         <v>44486</v>
@@ -7793,7 +7804,7 @@
         <v>8252</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11">
       <c r="A202" s="11">
         <f t="shared" si="3"/>
         <v>44493</v>
@@ -7829,7 +7840,7 @@
         <v>8513</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11">
       <c r="A203" s="11">
         <f t="shared" si="3"/>
         <v>44500</v>
@@ -7865,7 +7876,7 @@
         <v>8569</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11">
       <c r="A204" s="11">
         <f t="shared" si="3"/>
         <v>44507</v>
@@ -7901,7 +7912,7 @@
         <v>10146</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11">
       <c r="A205" s="11">
         <f t="shared" si="3"/>
         <v>44514</v>
@@ -7937,7 +7948,7 @@
         <v>9833</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11">
       <c r="A206" s="11">
         <f t="shared" si="3"/>
         <v>44521</v>
@@ -7973,7 +7984,7 @@
         <v>10713</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11">
       <c r="A207" s="11">
         <f t="shared" si="3"/>
         <v>44528</v>
@@ -8009,7 +8020,7 @@
         <v>10672</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11">
       <c r="A208" s="11">
         <f t="shared" si="3"/>
         <v>44535</v>
@@ -8045,7 +8056,7 @@
         <v>11408</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11">
       <c r="A209" s="11">
         <f t="shared" si="3"/>
         <v>44542</v>
@@ -8081,7 +8092,7 @@
         <v>12068</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11">
       <c r="A210" s="11">
         <f t="shared" si="3"/>
         <v>44549</v>
@@ -8117,7 +8128,7 @@
         <v>10758</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11">
       <c r="A211" s="11">
         <f t="shared" si="3"/>
         <v>44556</v>
@@ -8153,7 +8164,7 @@
         <v>10247</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11">
       <c r="A212" s="11">
         <f t="shared" si="3"/>
         <v>44563</v>
@@ -8189,7 +8200,7 @@
         <v>9786</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11">
       <c r="A213" s="11">
         <f t="shared" si="3"/>
         <v>44570</v>
@@ -8225,7 +8236,7 @@
         <v>8461</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11">
       <c r="A214" s="11">
         <f t="shared" si="3"/>
         <v>44577</v>
@@ -8261,7 +8272,7 @@
         <v>6933</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11">
       <c r="A215" s="11">
         <f t="shared" si="3"/>
         <v>44584</v>
@@ -8297,7 +8308,7 @@
         <v>7524</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11">
       <c r="A216" s="11">
         <f t="shared" si="3"/>
         <v>44591</v>
@@ -8333,7 +8344,7 @@
         <v>7909</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11">
       <c r="A217" s="11">
         <f t="shared" si="3"/>
         <v>44598</v>
@@ -8369,7 +8380,7 @@
         <v>6947</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11">
       <c r="A218" s="11">
         <f t="shared" si="3"/>
         <v>44605</v>
@@ -8405,7 +8416,7 @@
         <v>6615</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11">
       <c r="A219" s="11">
         <f t="shared" si="3"/>
         <v>44612</v>
@@ -8441,7 +8452,7 @@
         <v>6659</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11">
       <c r="A220" s="11">
         <f t="shared" si="3"/>
         <v>44619</v>
@@ -8477,7 +8488,7 @@
         <v>6470</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11">
       <c r="A221" s="11">
         <f t="shared" si="3"/>
         <v>44626</v>
@@ -8513,7 +8524,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11">
       <c r="A222" s="11">
         <f t="shared" si="3"/>
         <v>44633</v>
@@ -8549,7 +8560,7 @@
         <v>7688</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11">
       <c r="A223" s="11">
         <f t="shared" si="3"/>
         <v>44640</v>
@@ -8585,7 +8596,7 @@
         <v>7591</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11">
       <c r="A224" s="11">
         <f t="shared" si="3"/>
         <v>44647</v>
@@ -8621,7 +8632,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11">
       <c r="A225" s="11">
         <f t="shared" si="3"/>
         <v>44654</v>
@@ -8657,7 +8668,7 @@
         <v>8345</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11">
       <c r="A226" s="11">
         <f t="shared" si="3"/>
         <v>44661</v>
@@ -8693,7 +8704,7 @@
         <v>8476</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11">
       <c r="A227" s="11">
         <f t="shared" si="3"/>
         <v>44668</v>
@@ -8729,7 +8740,7 @@
         <v>7813</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11">
       <c r="A228" s="11">
         <f t="shared" si="3"/>
         <v>44675</v>
@@ -8765,7 +8776,7 @@
         <v>8281</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11">
       <c r="A229" s="11">
         <f t="shared" si="3"/>
         <v>44682</v>
@@ -8801,7 +8812,7 @@
         <v>7753</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11">
       <c r="A230" s="11">
         <f t="shared" si="3"/>
         <v>44689</v>
@@ -8837,7 +8848,7 @@
         <v>7190</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11">
       <c r="A231" s="11">
         <f t="shared" si="3"/>
         <v>44696</v>
@@ -8873,7 +8884,7 @@
         <v>7186</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11">
       <c r="A232" s="11">
         <f t="shared" si="3"/>
         <v>44703</v>
@@ -8909,7 +8920,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11">
       <c r="A233" s="11">
         <f t="shared" si="3"/>
         <v>44710</v>
@@ -8945,7 +8956,7 @@
         <v>7571</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11">
       <c r="A234" s="11">
         <f t="shared" si="3"/>
         <v>44717</v>
@@ -8981,7 +8992,7 @@
         <v>7788</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11">
       <c r="A235" s="11">
         <f t="shared" si="3"/>
         <v>44724</v>
@@ -9017,7 +9028,7 @@
         <v>7523</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11">
       <c r="A236" s="11">
         <f t="shared" si="3"/>
         <v>44731</v>
@@ -9053,7 +9064,7 @@
         <v>7309</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11">
       <c r="A237" s="11">
         <f t="shared" si="3"/>
         <v>44738</v>
@@ -9089,7 +9100,7 @@
         <v>7312</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11">
       <c r="A238" s="11">
         <f t="shared" si="3"/>
         <v>44745</v>
@@ -9125,7 +9136,7 @@
         <v>7701</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11">
       <c r="A239" s="11">
         <f t="shared" si="3"/>
         <v>44752</v>
@@ -9161,7 +9172,7 @@
         <v>7311</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11">
       <c r="A240" s="11">
         <f t="shared" si="3"/>
         <v>44759</v>
@@ -9197,7 +9208,7 @@
         <v>6911</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11">
       <c r="A241" s="11">
         <f t="shared" si="3"/>
         <v>44766</v>
@@ -9233,7 +9244,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11">
       <c r="A242" s="11">
         <f t="shared" si="3"/>
         <v>44773</v>
@@ -9269,7 +9280,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11">
       <c r="A243" s="11">
         <f t="shared" si="3"/>
         <v>44780</v>
@@ -9305,7 +9316,7 @@
         <v>6823</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11">
       <c r="A244" s="11">
         <f t="shared" si="3"/>
         <v>44787</v>
@@ -9341,7 +9352,7 @@
         <v>6785</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11">
       <c r="A245" s="11">
         <f t="shared" si="3"/>
         <v>44794</v>
@@ -9377,7 +9388,7 @@
         <v>6948</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11">
       <c r="A246" s="11">
         <f t="shared" si="3"/>
         <v>44801</v>
@@ -9413,7 +9424,7 @@
         <v>6759</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11">
       <c r="A247" s="11">
         <f t="shared" si="3"/>
         <v>44808</v>
@@ -9449,7 +9460,7 @@
         <v>6421</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11">
       <c r="A248" s="11">
         <f t="shared" si="3"/>
         <v>44815</v>
@@ -9485,7 +9496,7 @@
         <v>6562</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11">
       <c r="A249" s="11">
         <f t="shared" si="3"/>
         <v>44822</v>
@@ -9521,7 +9532,7 @@
         <v>6719</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11">
       <c r="A250" s="11">
         <f t="shared" si="3"/>
         <v>44829</v>
@@ -9557,7 +9568,7 @@
         <v>6157</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11">
       <c r="A251" s="11">
         <f t="shared" si="3"/>
         <v>44836</v>
@@ -9593,7 +9604,7 @@
         <v>5844</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11">
       <c r="A252" s="11">
         <f t="shared" si="3"/>
         <v>44843</v>
@@ -9629,7 +9640,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11">
       <c r="A253" s="11">
         <f t="shared" si="3"/>
         <v>44850</v>
@@ -9665,7 +9676,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11">
       <c r="A254" s="11">
         <f t="shared" si="3"/>
         <v>44857</v>
@@ -9701,7 +9712,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11">
       <c r="A255" s="11">
         <f t="shared" si="3"/>
         <v>44864</v>
@@ -9737,7 +9748,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11">
       <c r="A256" s="11">
         <f t="shared" si="3"/>
         <v>44871</v>
@@ -9773,7 +9784,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11">
       <c r="A257" s="11">
         <f t="shared" si="3"/>
         <v>44878</v>
@@ -9809,7 +9820,7 @@
         <v>5118</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11">
       <c r="A258" s="11">
         <f t="shared" si="3"/>
         <v>44885</v>
@@ -9845,7 +9856,7 @@
         <v>5205</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11">
       <c r="A259" s="11">
         <f t="shared" si="3"/>
         <v>44892</v>
@@ -9881,7 +9892,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11">
       <c r="A260" s="11">
         <f t="shared" ref="A260:A323" si="4">B260-1</f>
         <v>44899</v>
@@ -9917,7 +9928,7 @@
         <v>5242</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11">
       <c r="A261" s="11">
         <f t="shared" si="4"/>
         <v>44906</v>
@@ -9953,7 +9964,7 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11">
       <c r="A262" s="11">
         <f t="shared" si="4"/>
         <v>44913</v>
@@ -9989,7 +10000,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11">
       <c r="A263" s="11">
         <f t="shared" si="4"/>
         <v>44920</v>
@@ -10025,7 +10036,7 @@
         <v>5702</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11">
       <c r="A264" s="11">
         <f t="shared" si="4"/>
         <v>44927</v>
@@ -10061,7 +10072,7 @@
         <v>5586</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11">
       <c r="A265" s="11">
         <f t="shared" si="4"/>
         <v>44934</v>
@@ -10097,7 +10108,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11">
       <c r="A266" s="11">
         <f t="shared" si="4"/>
         <v>44941</v>
@@ -10133,7 +10144,7 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11">
       <c r="A267" s="11">
         <f t="shared" si="4"/>
         <v>44948</v>
@@ -10169,7 +10180,7 @@
         <v>4669</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11">
       <c r="A268" s="11">
         <f t="shared" si="4"/>
         <v>44955</v>
@@ -10205,7 +10216,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11">
       <c r="A269" s="11">
         <f t="shared" si="4"/>
         <v>44962</v>
@@ -10241,7 +10252,7 @@
         <v>4595</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11">
       <c r="A270" s="11">
         <f t="shared" si="4"/>
         <v>44969</v>
@@ -10277,7 +10288,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11">
       <c r="A271" s="11">
         <f t="shared" si="4"/>
         <v>44976</v>
@@ -10313,7 +10324,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11">
       <c r="A272" s="11">
         <f t="shared" si="4"/>
         <v>44983</v>
@@ -10349,7 +10360,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11">
       <c r="A273" s="11">
         <f t="shared" si="4"/>
         <v>44990</v>
@@ -10385,7 +10396,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11">
       <c r="A274" s="11">
         <f t="shared" si="4"/>
         <v>44997</v>
@@ -10421,7 +10432,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11">
       <c r="A275" s="11">
         <f t="shared" si="4"/>
         <v>45004</v>
@@ -10457,7 +10468,7 @@
         <v>4582</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11">
       <c r="A276" s="11">
         <f t="shared" si="4"/>
         <v>45011</v>
@@ -10493,7 +10504,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11">
       <c r="A277" s="11">
         <f t="shared" si="4"/>
         <v>45018</v>
@@ -10529,7 +10540,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11">
       <c r="A278" s="11">
         <f t="shared" si="4"/>
         <v>45025</v>
@@ -10565,7 +10576,7 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11">
       <c r="A279" s="11">
         <f t="shared" si="4"/>
         <v>45032</v>
@@ -10601,7 +10612,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11">
       <c r="A280" s="11">
         <f t="shared" si="4"/>
         <v>45039</v>
@@ -10637,7 +10648,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11">
       <c r="A281" s="11">
         <f t="shared" si="4"/>
         <v>45046</v>
@@ -10673,7 +10684,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11">
       <c r="A282" s="11">
         <f t="shared" si="4"/>
         <v>45053</v>
@@ -10709,7 +10720,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11">
       <c r="A283" s="11">
         <f t="shared" si="4"/>
         <v>45060</v>
@@ -10745,7 +10756,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11">
       <c r="A284" s="11">
         <f t="shared" si="4"/>
         <v>45067</v>
@@ -10781,7 +10792,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11">
       <c r="A285" s="11">
         <f t="shared" si="4"/>
         <v>45074</v>
@@ -10817,7 +10828,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11">
       <c r="A286" s="11">
         <f t="shared" si="4"/>
         <v>45081</v>
@@ -10853,7 +10864,7 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11">
       <c r="A287" s="11">
         <f t="shared" si="4"/>
         <v>45088</v>
@@ -10889,7 +10900,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11">
       <c r="A288" s="11">
         <f t="shared" si="4"/>
         <v>45095</v>
@@ -10925,7 +10936,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11">
       <c r="A289" s="11">
         <f t="shared" si="4"/>
         <v>45102</v>
@@ -10961,7 +10972,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11">
       <c r="A290" s="11">
         <f t="shared" si="4"/>
         <v>45109</v>
@@ -10997,7 +11008,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11">
       <c r="A291" s="11">
         <f t="shared" si="4"/>
         <v>45116</v>
@@ -11033,7 +11044,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11">
       <c r="A292" s="11">
         <f t="shared" si="4"/>
         <v>45123</v>
@@ -11069,7 +11080,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11">
       <c r="A293" s="11">
         <f t="shared" si="4"/>
         <v>45130</v>
@@ -11105,7 +11116,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11">
       <c r="A294" s="11">
         <f t="shared" si="4"/>
         <v>45137</v>
@@ -11141,7 +11152,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11">
       <c r="A295" s="11">
         <f t="shared" si="4"/>
         <v>45144</v>
@@ -11177,7 +11188,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11">
       <c r="A296" s="11">
         <f t="shared" si="4"/>
         <v>45151</v>
@@ -11213,7 +11224,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11">
       <c r="A297" s="11">
         <f t="shared" si="4"/>
         <v>45158</v>
@@ -11249,7 +11260,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11">
       <c r="A298" s="11">
         <f t="shared" si="4"/>
         <v>45165</v>
@@ -11285,7 +11296,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11">
       <c r="A299" s="11">
         <f t="shared" si="4"/>
         <v>45172</v>
@@ -11321,7 +11332,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11">
       <c r="A300" s="11">
         <f t="shared" si="4"/>
         <v>45179</v>
@@ -11357,7 +11368,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11">
       <c r="A301" s="11">
         <f t="shared" si="4"/>
         <v>45186</v>
@@ -11393,7 +11404,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11">
       <c r="A302" s="11">
         <f t="shared" si="4"/>
         <v>45193</v>
@@ -11429,7 +11440,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11">
       <c r="A303" s="11">
         <f t="shared" si="4"/>
         <v>45200</v>
@@ -11465,7 +11476,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11">
       <c r="A304" s="11">
         <f t="shared" si="4"/>
         <v>45207</v>
@@ -11501,7 +11512,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11">
       <c r="A305" s="11">
         <f t="shared" si="4"/>
         <v>45214</v>
@@ -11537,7 +11548,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11">
       <c r="A306" s="11">
         <f t="shared" si="4"/>
         <v>45221</v>
@@ -11573,7 +11584,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11">
       <c r="A307" s="11">
         <f t="shared" si="4"/>
         <v>45228</v>
@@ -11609,7 +11620,7 @@
         <v>4465</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11">
       <c r="A308" s="11">
         <f t="shared" si="4"/>
         <v>45235</v>
@@ -11645,7 +11656,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11">
       <c r="A309" s="11">
         <f t="shared" si="4"/>
         <v>45242</v>
@@ -11681,7 +11692,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11">
       <c r="A310" s="11">
         <f t="shared" si="4"/>
         <v>45249</v>
@@ -11717,7 +11728,7 @@
         <v>5136</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11">
       <c r="A311" s="11">
         <f t="shared" si="4"/>
         <v>45256</v>
@@ -11753,7 +11764,7 @@
         <v>5562</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11">
       <c r="A312" s="11">
         <f t="shared" si="4"/>
         <v>45263</v>
@@ -11789,7 +11800,7 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11">
       <c r="A313" s="11">
         <f t="shared" si="4"/>
         <v>45270</v>
@@ -11825,7 +11836,7 @@
         <v>5859</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11">
       <c r="A314" s="11">
         <f t="shared" si="4"/>
         <v>45277</v>
@@ -11861,7 +11872,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11">
       <c r="A315" s="11">
         <f t="shared" si="4"/>
         <v>45284</v>
@@ -11897,7 +11908,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11">
       <c r="A316" s="11">
         <f t="shared" si="4"/>
         <v>45291</v>
@@ -11933,7 +11944,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11">
       <c r="A317" s="11">
         <f t="shared" si="4"/>
         <v>45298</v>
@@ -11969,7 +11980,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11">
       <c r="A318" s="11">
         <f t="shared" si="4"/>
         <v>45305</v>
@@ -12005,7 +12016,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11">
       <c r="A319" s="11">
         <f t="shared" si="4"/>
         <v>45312</v>
@@ -12041,7 +12052,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11">
       <c r="A320" s="11">
         <f t="shared" si="4"/>
         <v>45319</v>
@@ -12077,7 +12088,7 @@
         <v>4103</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11">
       <c r="A321" s="11">
         <f t="shared" si="4"/>
         <v>45326</v>
@@ -12113,7 +12124,7 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11">
       <c r="A322" s="11">
         <f t="shared" si="4"/>
         <v>45333</v>
@@ -12149,7 +12160,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11">
       <c r="A323" s="11">
         <f t="shared" si="4"/>
         <v>45340</v>
@@ -12185,7 +12196,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11">
       <c r="A324" s="11">
         <f t="shared" ref="A324:A387" si="5">B324-1</f>
         <v>45347</v>
@@ -12221,7 +12232,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11">
       <c r="A325" s="11">
         <f t="shared" si="5"/>
         <v>45354</v>
@@ -12257,7 +12268,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11">
       <c r="A326" s="11">
         <f t="shared" si="5"/>
         <v>45361</v>
@@ -12293,7 +12304,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11">
       <c r="A327" s="11">
         <f t="shared" si="5"/>
         <v>45368</v>
@@ -12329,7 +12340,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11">
       <c r="A328" s="11">
         <f t="shared" si="5"/>
         <v>45375</v>
@@ -12365,7 +12376,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11">
       <c r="A329" s="11">
         <f t="shared" si="5"/>
         <v>45382</v>
@@ -12401,7 +12412,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11">
       <c r="A330" s="11">
         <f t="shared" si="5"/>
         <v>45389</v>
@@ -12437,7 +12448,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11">
       <c r="A331" s="11">
         <f t="shared" si="5"/>
         <v>45396</v>
@@ -12473,7 +12484,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11">
       <c r="A332" s="11">
         <f t="shared" si="5"/>
         <v>45403</v>
@@ -12509,7 +12520,7 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11">
       <c r="A333" s="11">
         <f t="shared" si="5"/>
         <v>45410</v>
@@ -12545,7 +12556,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11">
       <c r="A334" s="11">
         <f t="shared" si="5"/>
         <v>45417</v>
@@ -12581,7 +12592,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11">
       <c r="A335" s="11">
         <f t="shared" si="5"/>
         <v>45424</v>
@@ -12617,7 +12628,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11">
       <c r="A336" s="11">
         <f t="shared" si="5"/>
         <v>45431</v>
@@ -12653,7 +12664,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11">
       <c r="A337" s="11">
         <f t="shared" si="5"/>
         <v>45438</v>
@@ -12689,7 +12700,7 @@
         <v>4955</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11">
       <c r="A338" s="11">
         <f t="shared" si="5"/>
         <v>45445</v>
@@ -12725,7 +12736,7 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11">
       <c r="A339" s="11">
         <f t="shared" si="5"/>
         <v>45452</v>
@@ -12761,7 +12772,7 @@
         <v>4808</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11">
       <c r="A340" s="11">
         <f t="shared" si="5"/>
         <v>45459</v>
@@ -12797,7 +12808,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11">
       <c r="A341" s="11">
         <f t="shared" si="5"/>
         <v>45466</v>
@@ -12833,7 +12844,7 @@
         <v>4757</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11">
       <c r="A342" s="11">
         <f t="shared" si="5"/>
         <v>45473</v>
@@ -12869,7 +12880,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11">
       <c r="A343" s="11">
         <f t="shared" si="5"/>
         <v>45480</v>
@@ -12905,7 +12916,7 @@
         <v>4879</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11">
       <c r="A344" s="11">
         <f t="shared" si="5"/>
         <v>45487</v>
@@ -12941,7 +12952,7 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11">
       <c r="A345" s="11">
         <f t="shared" si="5"/>
         <v>45494</v>
@@ -12977,7 +12988,7 @@
         <v>4594</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11">
       <c r="A346" s="11">
         <f t="shared" si="5"/>
         <v>45501</v>
@@ -13013,7 +13024,7 @@
         <v>4598</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11">
       <c r="A347" s="11">
         <f t="shared" si="5"/>
         <v>45508</v>
@@ -13049,7 +13060,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11">
       <c r="A348" s="11">
         <f t="shared" si="5"/>
         <v>45515</v>
@@ -13085,7 +13096,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11">
       <c r="A349" s="11">
         <f t="shared" si="5"/>
         <v>45522</v>
@@ -13121,7 +13132,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11">
       <c r="A350" s="11">
         <f t="shared" si="5"/>
         <v>45529</v>
@@ -13157,7 +13168,7 @@
         <v>4788</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11">
       <c r="A351" s="11">
         <f t="shared" si="5"/>
         <v>45536</v>
@@ -13193,7 +13204,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11">
       <c r="A352" s="11">
         <f t="shared" si="5"/>
         <v>45543</v>
@@ -13229,7 +13240,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11">
       <c r="A353" s="11">
         <f t="shared" si="5"/>
         <v>45550</v>
@@ -13265,7 +13276,7 @@
         <v>4815</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11">
       <c r="A354" s="11">
         <f t="shared" si="5"/>
         <v>45557</v>
@@ -13301,7 +13312,7 @@
         <v>4837</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11">
       <c r="A355" s="11">
         <f t="shared" si="5"/>
         <v>45564</v>
@@ -13337,7 +13348,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11">
       <c r="A356" s="11">
         <f t="shared" si="5"/>
         <v>45571</v>
@@ -13373,7 +13384,7 @@
         <v>4879</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11">
       <c r="A357" s="11">
         <f t="shared" si="5"/>
         <v>45578</v>
@@ -13409,7 +13420,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11">
       <c r="A358" s="11">
         <f t="shared" si="5"/>
         <v>45585</v>
@@ -13445,7 +13456,7 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11">
       <c r="A359" s="11">
         <f t="shared" si="5"/>
         <v>45592</v>
@@ -13481,7 +13492,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11">
       <c r="A360" s="11">
         <f t="shared" si="5"/>
         <v>45599</v>
@@ -13517,7 +13528,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11">
       <c r="A361" s="11">
         <f t="shared" si="5"/>
         <v>45606</v>
@@ -13553,7 +13564,7 @@
         <v>5494</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11">
       <c r="A362" s="11">
         <f t="shared" si="5"/>
         <v>45613</v>
@@ -13589,7 +13600,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11">
       <c r="A363" s="11">
         <f t="shared" si="5"/>
         <v>45620</v>
@@ -13625,7 +13636,7 @@
         <v>5225</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11">
       <c r="A364" s="11">
         <f t="shared" si="5"/>
         <v>45627</v>
@@ -13661,7 +13672,7 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11">
       <c r="A365" s="11">
         <f t="shared" si="5"/>
         <v>45634</v>
@@ -13697,7 +13708,7 @@
         <v>5777</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11">
       <c r="A366" s="11">
         <f t="shared" si="5"/>
         <v>45641</v>
@@ -13733,7 +13744,7 @@
         <v>5722</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11">
       <c r="A367" s="11">
         <f t="shared" si="5"/>
         <v>45648</v>
@@ -13769,7 +13780,7 @@
         <v>5327</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11">
       <c r="A368" s="11">
         <f t="shared" si="5"/>
         <v>45655</v>
@@ -13805,7 +13816,7 @@
         <v>5327</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11">
       <c r="A369" s="11">
         <f t="shared" si="5"/>
         <v>45662</v>
@@ -13841,7 +13852,7 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11">
       <c r="A370" s="11">
         <f t="shared" si="5"/>
         <v>45669</v>
@@ -13877,7 +13888,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11">
       <c r="A371" s="11">
         <f t="shared" si="5"/>
         <v>45676</v>
@@ -13913,7 +13924,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11">
       <c r="A372" s="11">
         <f t="shared" si="5"/>
         <v>45683</v>
@@ -13949,7 +13960,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11">
       <c r="A373" s="11">
         <f t="shared" si="5"/>
         <v>45690</v>
@@ -13985,7 +13996,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11">
       <c r="A374" s="11">
         <f t="shared" si="5"/>
         <v>45697</v>
@@ -14021,7 +14032,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11">
       <c r="A375" s="11">
         <f t="shared" si="5"/>
         <v>45704</v>
@@ -14057,7 +14068,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11">
       <c r="A376" s="11">
         <f t="shared" si="5"/>
         <v>45711</v>
@@ -14093,7 +14104,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11">
       <c r="A377" s="11">
         <f t="shared" si="5"/>
         <v>45718</v>
@@ -14129,7 +14140,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11">
       <c r="A378" s="11">
         <f t="shared" si="5"/>
         <v>45725</v>
@@ -14165,7 +14176,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11">
       <c r="A379" s="11">
         <f t="shared" si="5"/>
         <v>45732</v>
@@ -14201,7 +14212,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11">
       <c r="A380" s="11">
         <f t="shared" si="5"/>
         <v>45739</v>
@@ -14237,7 +14248,7 @@
         <v>4547</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11">
       <c r="A381" s="11">
         <f t="shared" si="5"/>
         <v>45746</v>
@@ -14273,7 +14284,7 @@
         <v>4573</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11">
       <c r="A382" s="11">
         <f t="shared" si="5"/>
         <v>45753</v>
@@ -14309,7 +14320,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11">
       <c r="A383" s="11">
         <f t="shared" si="5"/>
         <v>45760</v>
@@ -14345,7 +14356,7 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11">
       <c r="A384" s="11">
         <f t="shared" si="5"/>
         <v>45767</v>
@@ -14381,7 +14392,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11">
       <c r="A385" s="11">
         <f t="shared" si="5"/>
         <v>45774</v>
@@ -14417,7 +14428,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11">
       <c r="A386" s="11">
         <f t="shared" si="5"/>
         <v>45781</v>
@@ -14453,7 +14464,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11">
       <c r="A387" s="11">
         <f t="shared" si="5"/>
         <v>45788</v>
@@ -14489,7 +14500,7 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11">
       <c r="A388" s="11">
         <f t="shared" ref="A388:A419" si="6">B388-1</f>
         <v>45795</v>
@@ -14525,7 +14536,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11">
       <c r="A389" s="11">
         <f t="shared" si="6"/>
         <v>45802</v>
@@ -14561,7 +14572,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11">
       <c r="A390" s="11">
         <f t="shared" si="6"/>
         <v>45809</v>
@@ -14597,7 +14608,7 @@
         <v>4607</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11">
       <c r="A391" s="11">
         <f t="shared" si="6"/>
         <v>45816</v>
@@ -14633,7 +14644,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11">
       <c r="A392" s="11">
         <f t="shared" si="6"/>
         <v>45823</v>
@@ -14669,7 +14680,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11">
       <c r="A393" s="11">
         <f t="shared" si="6"/>
         <v>45830</v>
@@ -14705,7 +14716,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11">
       <c r="A394" s="11">
         <f t="shared" si="6"/>
         <v>45837</v>
@@ -14741,7 +14752,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11">
       <c r="A395" s="11">
         <f t="shared" si="6"/>
         <v>45844</v>
@@ -14777,7 +14788,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11">
       <c r="A396" s="11">
         <f t="shared" si="6"/>
         <v>45851</v>
@@ -14813,7 +14824,7 @@
         <v>4593</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11">
       <c r="A397" s="11">
         <f t="shared" si="6"/>
         <v>45858</v>
@@ -14849,7 +14860,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11">
       <c r="A398" s="11">
         <f t="shared" si="6"/>
         <v>45865</v>
@@ -14885,7 +14896,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11">
       <c r="A399" s="11">
         <f t="shared" si="6"/>
         <v>45872</v>
@@ -14921,7 +14932,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11">
       <c r="A400" s="11">
         <f t="shared" si="6"/>
         <v>45879</v>
@@ -14957,7 +14968,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11">
       <c r="A401" s="11">
         <f t="shared" si="6"/>
         <v>45886</v>
@@ -14993,7 +15004,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11">
       <c r="A402" s="11">
         <f t="shared" si="6"/>
         <v>45893</v>
@@ -15029,7 +15040,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11">
       <c r="A403" s="11">
         <f t="shared" si="6"/>
         <v>45900</v>
@@ -15065,7 +15076,7 @@
         <v>4549</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11">
       <c r="A404" s="11">
         <f t="shared" si="6"/>
         <v>45907</v>
@@ -15101,7 +15112,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11">
       <c r="A405" s="11">
         <f t="shared" si="6"/>
         <v>45914</v>
@@ -15137,7 +15148,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11">
       <c r="A406" s="11">
         <f t="shared" si="6"/>
         <v>45921</v>
@@ -15173,7 +15184,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11">
       <c r="A407" s="11">
         <f t="shared" si="6"/>
         <v>45928</v>
@@ -15209,7 +15220,7 @@
         <v>4562</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11">
       <c r="A408" s="11">
         <f t="shared" si="6"/>
         <v>45935</v>
@@ -15245,7 +15256,7 @@
         <v>4621</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11">
       <c r="A409" s="11">
         <f t="shared" si="6"/>
         <v>45942</v>
@@ -15281,7 +15292,7 @@
         <v>4441</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11">
       <c r="A410" s="11">
         <f t="shared" si="6"/>
         <v>45949</v>
@@ -15317,7 +15328,7 @@
         <v>4746</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11">
       <c r="A411" s="11">
         <f t="shared" si="6"/>
         <v>45956</v>
@@ -15353,7 +15364,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11">
       <c r="A412" s="11">
         <f t="shared" si="6"/>
         <v>45963</v>
@@ -15389,7 +15400,7 @@
         <v>5366</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11">
       <c r="A413" s="11">
         <f t="shared" si="6"/>
         <v>45970</v>
@@ -15425,7 +15436,7 @@
         <v>5356</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11">
       <c r="A414" s="11">
         <f t="shared" si="6"/>
         <v>45977</v>
@@ -15461,7 +15472,7 @@
         <v>5581</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11">
       <c r="A415" s="11">
         <f t="shared" si="6"/>
         <v>45984</v>
@@ -15497,7 +15508,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11">
       <c r="A416" s="11">
         <f t="shared" si="6"/>
         <v>45991</v>
@@ -15533,7 +15544,7 @@
         <v>5721</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11">
       <c r="A417" s="11">
         <f t="shared" si="6"/>
         <v>45998</v>
@@ -15569,7 +15580,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11">
       <c r="A418" s="11">
         <f t="shared" si="6"/>
         <v>46005</v>
@@ -15605,7 +15616,7 @@
         <v>6369</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11">
       <c r="A419" s="11">
         <f t="shared" si="6"/>
         <v>46012</v>
@@ -15641,7 +15652,7 @@
         <v>5821</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11">
       <c r="A420" s="11">
         <f t="shared" ref="A420:A422" si="7">B420-1</f>
         <v>46026</v>
@@ -15677,7 +15688,7 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11">
       <c r="A421" s="11">
         <f t="shared" si="7"/>
         <v>46033</v>
@@ -15713,7 +15724,7 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11">
       <c r="A422" s="11">
         <f t="shared" si="7"/>
         <v>46040</v>
@@ -15749,7 +15760,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11">
       <c r="A423" s="11">
         <f t="shared" ref="A423:A425" si="8">B423-1</f>
         <v>46047</v>
@@ -15785,7 +15796,7 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11">
       <c r="A424" s="11">
         <f t="shared" si="8"/>
         <v>46054</v>
@@ -15821,7 +15832,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11">
       <c r="A425" s="11">
         <f t="shared" si="8"/>
         <v>46061</v>
@@ -15855,6 +15866,42 @@
       </c>
       <c r="K425" s="10">
         <v>4730</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="A426" s="11">
+        <f t="shared" ref="A426" si="9">B426-1</f>
+        <v>46068</v>
+      </c>
+      <c r="B426" s="8">
+        <v>46069</v>
+      </c>
+      <c r="C426" s="9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D426" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E426" s="10">
+        <v>2171</v>
+      </c>
+      <c r="F426" s="10">
+        <v>1101</v>
+      </c>
+      <c r="G426" s="10">
+        <v>3544</v>
+      </c>
+      <c r="H426" s="10">
+        <v>1330</v>
+      </c>
+      <c r="I426" s="10">
+        <v>922</v>
+      </c>
+      <c r="J426" s="10">
+        <v>206</v>
+      </c>
+      <c r="K426" s="10">
+        <v>4757</v>
       </c>
     </row>
   </sheetData>
@@ -15878,12 +15925,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -15895,7 +15942,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
